--- a/absGlyphList/absGlyphList.xlsx
+++ b/absGlyphList/absGlyphList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420" codeName="{7A2D7E96-6E34-419A-AE5F-296B3A7E7977}"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,6 @@
     <sheet name="Contextual alignment" sheetId="2" r:id="rId2"/>
     <sheet name="ShapeOrderOriginal" sheetId="3" r:id="rId3"/>
   </sheets>
-  <functionGroups builtInGroupCount="18"/>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">absGlyphList!$A$1:$X$1483</definedName>
   </definedNames>
@@ -8439,7 +8438,7 @@
     <t>not found</t>
   </si>
   <si>
-    <t>Becca'sOrder</t>
+    <t>DesignerOrder</t>
   </si>
 </sst>
 </file>
@@ -9207,7 +9206,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/absGlyphList/absGlyphList.xlsx
+++ b/absGlyphList/absGlyphList.xlsx
@@ -15417,16 +15417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr transitionEvaluation="1" codeName="Sheet1" filterMode="1">
+  <sheetPr transitionEvaluation="1" codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB1582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B514" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B569" sqref="B569"/>
+      <selection pane="bottomRight" activeCell="J1251" sqref="J1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15666,7 +15666,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>1020</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>249</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>486</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>487</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>488</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>258</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>3318.0510000000004</v>
       </c>
     </row>
-    <row r="251" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251" s="19" t="s">
         <v>4822</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="252" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252" s="19" t="s">
         <v>4823</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>3321.0510000000004</v>
       </c>
     </row>
-    <row r="259" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="19" t="s">
         <v>461</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="260" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="s">
         <v>689</v>
       </c>
@@ -24622,7 +24622,7 @@
         <v>3324.0010000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="19" t="s">
         <v>1235</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>3324.0310000000004</v>
       </c>
     </row>
-    <row r="262" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="19" t="s">
         <v>1206</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>3324.0410000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="19" t="s">
         <v>231</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="264" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="19" t="s">
         <v>690</v>
       </c>
@@ -24789,7 +24789,7 @@
         <v>3325.0010000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="19" t="s">
         <v>1236</v>
       </c>
@@ -24830,7 +24830,7 @@
         <v>3325.0310000000004</v>
       </c>
     </row>
-    <row r="266" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="19" t="s">
         <v>1207</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>3329.0410000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="19" t="s">
         <v>426</v>
       </c>
@@ -25422,7 +25422,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="280" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="19" t="s">
         <v>1267</v>
       </c>
@@ -25463,7 +25463,7 @@
         <v>3334.0010000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="19" t="s">
         <v>1237</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>3334.0310000000004</v>
       </c>
     </row>
-    <row r="282" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="19" t="s">
         <v>1208</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>3334.0410000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="19" t="s">
         <v>404</v>
       </c>
@@ -25592,7 +25592,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="284" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="19" t="s">
         <v>290</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>3760.0010000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="19" t="s">
         <v>995</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>3760.0310000000004</v>
       </c>
     </row>
-    <row r="286" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="19" t="s">
         <v>1210</v>
       </c>
@@ -25724,7 +25724,7 @@
         <v>3760.0410000000002</v>
       </c>
     </row>
-    <row r="287" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="19" t="s">
         <v>207</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="288" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="19" t="s">
         <v>291</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>3761.0010000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A289" s="19" t="s">
         <v>996</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>3761.0310000000004</v>
       </c>
     </row>
-    <row r="290" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A290" s="19" t="s">
         <v>1211</v>
       </c>
@@ -26699,7 +26699,7 @@
         <v>3349.0030000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="19" t="s">
         <v>881</v>
       </c>
@@ -26743,7 +26743,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="312" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="19" t="s">
         <v>610</v>
       </c>
@@ -26784,7 +26784,7 @@
         <v>3354.0010000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="19" t="s">
         <v>1275</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>3354.002</v>
       </c>
     </row>
-    <row r="314" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="19" t="s">
         <v>385</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>3366.0030000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="19" t="s">
         <v>1</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="332" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="19" t="s">
         <v>622</v>
       </c>
@@ -27631,7 +27631,7 @@
         <v>3371.0010000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="19" t="s">
         <v>1301</v>
       </c>
@@ -27672,7 +27672,7 @@
         <v>3371.002</v>
       </c>
     </row>
-    <row r="334" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="19" t="s">
         <v>376</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>3376.0030000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="19" t="s">
         <v>880</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="340" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="19" t="s">
         <v>609</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>3381.0010000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="19" t="s">
         <v>1274</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>3381.002</v>
       </c>
     </row>
-    <row r="342" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="19" t="s">
         <v>384</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>3387.0030000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="19" t="s">
         <v>2361</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="353" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="19" t="s">
         <v>2362</v>
       </c>
@@ -28551,7 +28551,7 @@
         <v>3388.0010000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="19" t="s">
         <v>2363</v>
       </c>
@@ -28627,7 +28627,7 @@
         <v>3388.002</v>
       </c>
     </row>
-    <row r="357" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="19" t="s">
         <v>2364</v>
       </c>
@@ -28703,7 +28703,7 @@
         <v>3388.0030000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="19" t="s">
         <v>2365</v>
       </c>
@@ -28797,7 +28797,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="361" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="19" t="s">
         <v>2366</v>
       </c>
@@ -28885,7 +28885,7 @@
         <v>3389.0010000000002</v>
       </c>
     </row>
-    <row r="363" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="19" t="s">
         <v>2367</v>
       </c>
@@ -28967,7 +28967,7 @@
         <v>3389.002</v>
       </c>
     </row>
-    <row r="365" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="19" t="s">
         <v>2368</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>3431.0920000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="19" t="s">
         <v>2373</v>
       </c>
@@ -32803,7 +32803,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="456" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="19" t="s">
         <v>2374</v>
       </c>
@@ -32885,7 +32885,7 @@
         <v>3432.0010000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="19" t="s">
         <v>2375</v>
       </c>
@@ -32961,7 +32961,7 @@
         <v>3432.002</v>
       </c>
     </row>
-    <row r="460" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="19" t="s">
         <v>2376</v>
       </c>
@@ -33289,7 +33289,7 @@
         <v>3435.0920000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="19" t="s">
         <v>184</v>
       </c>
@@ -33336,7 +33336,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="469" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="19" t="s">
         <v>185</v>
       </c>
@@ -33380,7 +33380,7 @@
         <v>3440.0010000000002</v>
       </c>
     </row>
-    <row r="470" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="19" t="s">
         <v>388</v>
       </c>
@@ -33424,7 +33424,7 @@
         <v>3440.002</v>
       </c>
     </row>
-    <row r="471" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="19" t="s">
         <v>389</v>
       </c>
@@ -33468,7 +33468,7 @@
         <v>3440.0030000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="19" t="s">
         <v>390</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="473" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="19" t="s">
         <v>391</v>
       </c>
@@ -33559,7 +33559,7 @@
         <v>3444.0010000000002</v>
       </c>
     </row>
-    <row r="474" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="19" t="s">
         <v>392</v>
       </c>
@@ -33603,7 +33603,7 @@
         <v>3444.002</v>
       </c>
     </row>
-    <row r="475" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="19" t="s">
         <v>393</v>
       </c>
@@ -33647,7 +33647,7 @@
         <v>3444.0030000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="19" t="s">
         <v>400</v>
       </c>
@@ -33694,7 +33694,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="477" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="19" t="s">
         <v>401</v>
       </c>
@@ -33738,7 +33738,7 @@
         <v>3835.0010000000002</v>
       </c>
     </row>
-    <row r="478" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="19" t="s">
         <v>402</v>
       </c>
@@ -33782,7 +33782,7 @@
         <v>3835.002</v>
       </c>
     </row>
-    <row r="479" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="19" t="s">
         <v>403</v>
       </c>
@@ -33826,7 +33826,7 @@
         <v>3835.0030000000002</v>
       </c>
     </row>
-    <row r="480" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="19" t="s">
         <v>114</v>
       </c>
@@ -33873,7 +33873,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="481" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="19" t="s">
         <v>115</v>
       </c>
@@ -33917,7 +33917,7 @@
         <v>3445.0010000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="19" t="s">
         <v>116</v>
       </c>
@@ -33958,7 +33958,7 @@
         <v>3445.002</v>
       </c>
     </row>
-    <row r="483" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="19" t="s">
         <v>117</v>
       </c>
@@ -34299,7 +34299,7 @@
         <v>3450.0010000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="19" t="s">
         <v>1479</v>
       </c>
@@ -34420,7 +34420,7 @@
         <v>3453.0010000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="19" t="s">
         <v>1481</v>
       </c>
@@ -34464,7 +34464,7 @@
         <v>3453.1</v>
       </c>
     </row>
-    <row r="495" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="19" t="s">
         <v>752</v>
       </c>
@@ -34508,7 +34508,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="496" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="19" t="s">
         <v>815</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>3457.0010000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="19" t="s">
         <v>1482</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>3460.0010000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="19" t="s">
         <v>1486</v>
       </c>
@@ -34807,7 +34807,7 @@
         <v>3463.0010000000002</v>
       </c>
     </row>
-    <row r="503" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A503" s="19" t="s">
         <v>1487</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>3466.0010000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A506" s="19" t="s">
         <v>1483</v>
       </c>
@@ -35067,7 +35067,7 @@
         <v>3467.0010000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A509" s="19" t="s">
         <v>1484</v>
       </c>
@@ -35202,7 +35202,7 @@
         <v>3468.0010000000002</v>
       </c>
     </row>
-    <row r="512" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A512" s="19" t="s">
         <v>1485</v>
       </c>
@@ -35334,7 +35334,7 @@
         <v>3469.0010000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A515" s="19" t="s">
         <v>1488</v>
       </c>
@@ -35463,7 +35463,7 @@
         <v>3472.0010000000002</v>
       </c>
     </row>
-    <row r="518" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A518" s="19" t="s">
         <v>1489</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>3472.1</v>
       </c>
     </row>
-    <row r="519" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A519" s="19" t="s">
         <v>477</v>
       </c>
@@ -35551,7 +35551,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="520" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A520" s="19" t="s">
         <v>143</v>
       </c>
@@ -35592,7 +35592,7 @@
         <v>3473.0010000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A521" s="19" t="s">
         <v>1490</v>
       </c>
@@ -35721,7 +35721,7 @@
         <v>3474.0010000000002</v>
       </c>
     </row>
-    <row r="524" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A524" s="19" t="s">
         <v>1491</v>
       </c>
@@ -35765,7 +35765,7 @@
         <v>3474.1</v>
       </c>
     </row>
-    <row r="525" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A525" s="19" t="s">
         <v>107</v>
       </c>
@@ -35812,7 +35812,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="526" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A526" s="27" t="s">
         <v>841</v>
       </c>
@@ -35856,7 +35856,7 @@
         <v>3475.0010000000002</v>
       </c>
     </row>
-    <row r="527" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A527" s="19" t="s">
         <v>1492</v>
       </c>
@@ -35989,7 +35989,7 @@
         <v>3476.0010000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A530" s="19" t="s">
         <v>1493</v>
       </c>
@@ -36123,7 +36123,7 @@
         <v>3477.0010000000002</v>
       </c>
     </row>
-    <row r="533" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A533" s="19" t="s">
         <v>1494</v>
       </c>
@@ -36425,7 +36425,7 @@
         <v>3484.0010000000002</v>
       </c>
     </row>
-    <row r="540" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A540" s="19" t="s">
         <v>978</v>
       </c>
@@ -36469,7 +36469,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="541" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A541" s="19" t="s">
         <v>351</v>
       </c>
@@ -36595,7 +36595,7 @@
         <v>3491.0010000000002</v>
       </c>
     </row>
-    <row r="544" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A544" s="19" t="s">
         <v>980</v>
       </c>
@@ -36640,7 +36640,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="545" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A545" s="19" t="s">
         <v>125</v>
       </c>
@@ -37455,7 +37455,7 @@
         <v>3503.0010000000002</v>
       </c>
     </row>
-    <row r="564" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A564" s="19" t="s">
         <v>783</v>
       </c>
@@ -37499,7 +37499,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="565" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A565" s="19" t="s">
         <v>11</v>
       </c>
@@ -37540,7 +37540,7 @@
         <v>3504.0010000000002</v>
       </c>
     </row>
-    <row r="566" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A566" s="19" t="s">
         <v>398</v>
       </c>
@@ -37587,7 +37587,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="567" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A567" s="19" t="s">
         <v>399</v>
       </c>
@@ -37719,7 +37719,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="570" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A570" s="19" t="s">
         <v>74</v>
       </c>
@@ -37757,7 +37757,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="571" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A571" s="19" t="s">
         <v>75</v>
       </c>
@@ -38858,7 +38858,7 @@
         <v>3523.0030000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A598" s="19" t="s">
         <v>630</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="599" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A599" s="19" t="s">
         <v>802</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>3821.0010000000002</v>
       </c>
     </row>
-    <row r="600" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A600" s="19" t="s">
         <v>474</v>
       </c>
@@ -38984,7 +38984,7 @@
         <v>3821.002</v>
       </c>
     </row>
-    <row r="601" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A601" s="19" t="s">
         <v>262</v>
       </c>
@@ -39192,7 +39192,7 @@
         <v>3833.0030000000002</v>
       </c>
     </row>
-    <row r="606" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A606" s="19" t="s">
         <v>394</v>
       </c>
@@ -39239,7 +39239,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="607" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A607" s="19" t="s">
         <v>395</v>
       </c>
@@ -39283,7 +39283,7 @@
         <v>3834.0010000000002</v>
       </c>
     </row>
-    <row r="608" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A608" s="19" t="s">
         <v>396</v>
       </c>
@@ -39327,7 +39327,7 @@
         <v>3834.002</v>
       </c>
     </row>
-    <row r="609" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A609" s="19" t="s">
         <v>397</v>
       </c>
@@ -39371,7 +39371,7 @@
         <v>3834.0030000000002</v>
       </c>
     </row>
-    <row r="610" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A610" s="19" t="s">
         <v>118</v>
       </c>
@@ -39418,7 +39418,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="611" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A611" s="19" t="s">
         <v>119</v>
       </c>
@@ -39459,7 +39459,7 @@
         <v>3836.0010000000002</v>
       </c>
     </row>
-    <row r="612" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A612" s="19" t="s">
         <v>120</v>
       </c>
@@ -39500,7 +39500,7 @@
         <v>3836.002</v>
       </c>
     </row>
-    <row r="613" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613" s="19" t="s">
         <v>144</v>
       </c>
@@ -44097,7 +44097,7 @@
         <v>3580.0030000000002</v>
       </c>
     </row>
-    <row r="726" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A726" s="19" t="s">
         <v>440</v>
       </c>
@@ -44141,7 +44141,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="727" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A727" s="19" t="s">
         <v>1293</v>
       </c>
@@ -44182,7 +44182,7 @@
         <v>3582.0010000000002</v>
       </c>
     </row>
-    <row r="728" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A728" s="19" t="s">
         <v>1082</v>
       </c>
@@ -44223,7 +44223,7 @@
         <v>3582.002</v>
       </c>
     </row>
-    <row r="729" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A729" s="19" t="s">
         <v>469</v>
       </c>
@@ -44425,7 +44425,7 @@
         <v>3825.0030000000002</v>
       </c>
     </row>
-    <row r="734" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A734" s="19" t="s">
         <v>2369</v>
       </c>
@@ -44513,7 +44513,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="736" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A736" s="19" t="s">
         <v>2370</v>
       </c>
@@ -44595,7 +44595,7 @@
         <v>3826.0010000000002</v>
       </c>
     </row>
-    <row r="738" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A738" s="19" t="s">
         <v>2371</v>
       </c>
@@ -44671,7 +44671,7 @@
         <v>3826.002</v>
       </c>
     </row>
-    <row r="740" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A740" s="19" t="s">
         <v>2372</v>
       </c>
@@ -47207,7 +47207,7 @@
         <v>3618.0030000000002</v>
       </c>
     </row>
-    <row r="802" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A802" s="19" t="s">
         <v>2377</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="804" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A804" s="19" t="s">
         <v>2378</v>
       </c>
@@ -47377,7 +47377,7 @@
         <v>3619.0010000000002</v>
       </c>
     </row>
-    <row r="806" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A806" s="19" t="s">
         <v>2379</v>
       </c>
@@ -47453,7 +47453,7 @@
         <v>3619.002</v>
       </c>
     </row>
-    <row r="808" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A808" s="19" t="s">
         <v>2380</v>
       </c>
@@ -47696,7 +47696,7 @@
         <v>3620.0030000000002</v>
       </c>
     </row>
-    <row r="814" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A814" s="19" t="s">
         <v>926</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="815" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A815" s="19" t="s">
         <v>1029</v>
       </c>
@@ -47787,7 +47787,7 @@
         <v>3625.0010000000002</v>
       </c>
     </row>
-    <row r="816" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A816" s="19" t="s">
         <v>1077</v>
       </c>
@@ -47831,7 +47831,7 @@
         <v>3625.002</v>
       </c>
     </row>
-    <row r="817" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A817" s="19" t="s">
         <v>925</v>
       </c>
@@ -47875,7 +47875,7 @@
         <v>3625.0030000000002</v>
       </c>
     </row>
-    <row r="818" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A818" s="19" t="s">
         <v>450</v>
       </c>
@@ -47919,7 +47919,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="819" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A819" s="19" t="s">
         <v>1102</v>
       </c>
@@ -47960,7 +47960,7 @@
         <v>3626.0010000000002</v>
       </c>
     </row>
-    <row r="820" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A820" s="19" t="s">
         <v>1129</v>
       </c>
@@ -48001,7 +48001,7 @@
         <v>3626.002</v>
       </c>
     </row>
-    <row r="821" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A821" s="19" t="s">
         <v>1260</v>
       </c>
@@ -48173,7 +48173,7 @@
         <v>3627.0030000000002</v>
       </c>
     </row>
-    <row r="826" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A826" s="19" t="s">
         <v>236</v>
       </c>
@@ -48218,7 +48218,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="827" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A827" s="19" t="s">
         <v>1027</v>
       </c>
@@ -48260,7 +48260,7 @@
         <v>3628.0010000000002</v>
       </c>
     </row>
-    <row r="828" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A828" s="19" t="s">
         <v>1075</v>
       </c>
@@ -48302,7 +48302,7 @@
         <v>3628.002</v>
       </c>
     </row>
-    <row r="829" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A829" s="19" t="s">
         <v>992</v>
       </c>
@@ -48848,7 +48848,7 @@
         <v>3631.0030000000002</v>
       </c>
     </row>
-    <row r="842" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A842" s="19" t="s">
         <v>448</v>
       </c>
@@ -48895,7 +48895,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="843" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A843" s="19" t="s">
         <v>818</v>
       </c>
@@ -48939,7 +48939,7 @@
         <v>3632.0010000000002</v>
       </c>
     </row>
-    <row r="844" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A844" s="19" t="s">
         <v>1079</v>
       </c>
@@ -48983,7 +48983,7 @@
         <v>3632.002</v>
       </c>
     </row>
-    <row r="845" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A845" s="19" t="s">
         <v>1122</v>
       </c>
@@ -49027,7 +49027,7 @@
         <v>3632.0030000000002</v>
       </c>
     </row>
-    <row r="846" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A846" s="19" t="s">
         <v>1429</v>
       </c>
@@ -49074,7 +49074,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="847" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A847" s="19" t="s">
         <v>1431</v>
       </c>
@@ -49115,7 +49115,7 @@
         <v>3633.0010000000002</v>
       </c>
     </row>
-    <row r="848" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A848" s="19" t="s">
         <v>1432</v>
       </c>
@@ -49156,7 +49156,7 @@
         <v>3633.002</v>
       </c>
     </row>
-    <row r="849" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A849" s="19" t="s">
         <v>1433</v>
       </c>
@@ -49364,7 +49364,7 @@
         <v>3634.0030000000002</v>
       </c>
     </row>
-    <row r="854" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A854" s="19" t="s">
         <v>927</v>
       </c>
@@ -49408,7 +49408,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="855" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A855" s="19" t="s">
         <v>1030</v>
       </c>
@@ -49449,7 +49449,7 @@
         <v>3639.0010000000002</v>
       </c>
     </row>
-    <row r="856" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A856" s="19" t="s">
         <v>1078</v>
       </c>
@@ -49490,7 +49490,7 @@
         <v>3639.002</v>
       </c>
     </row>
-    <row r="857" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A857" s="19" t="s">
         <v>1121</v>
       </c>
@@ -49531,7 +49531,7 @@
         <v>3639.0030000000002</v>
       </c>
     </row>
-    <row r="858" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A858" s="19" t="s">
         <v>449</v>
       </c>
@@ -49578,7 +49578,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="859" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A859" s="19" t="s">
         <v>819</v>
       </c>
@@ -49622,7 +49622,7 @@
         <v>3644.0010000000002</v>
       </c>
     </row>
-    <row r="860" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A860" s="19" t="s">
         <v>1080</v>
       </c>
@@ -49666,7 +49666,7 @@
         <v>3644.002</v>
       </c>
     </row>
-    <row r="861" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A861" s="19" t="s">
         <v>1123</v>
       </c>
@@ -52987,7 +52987,7 @@
         <v>3681.0030000000002</v>
       </c>
     </row>
-    <row r="942" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A942" s="19" t="s">
         <v>820</v>
       </c>
@@ -53031,7 +53031,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="943" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A943" s="19" t="s">
         <v>1296</v>
       </c>
@@ -53072,7 +53072,7 @@
         <v>3684.0010000000002</v>
       </c>
     </row>
-    <row r="944" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A944" s="19" t="s">
         <v>1217</v>
       </c>
@@ -53113,7 +53113,7 @@
         <v>3684.002</v>
       </c>
     </row>
-    <row r="945" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A945" s="19" t="s">
         <v>271</v>
       </c>
@@ -53679,7 +53679,7 @@
         <v>3829.0030000000002</v>
       </c>
     </row>
-    <row r="958" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A958" s="19" t="s">
         <v>1279</v>
       </c>
@@ -53723,7 +53723,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="959" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A959" s="19" t="s">
         <v>697</v>
       </c>
@@ -53764,7 +53764,7 @@
         <v>3830.0010000000002</v>
       </c>
     </row>
-    <row r="960" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A960" s="19" t="s">
         <v>1149</v>
       </c>
@@ -53805,7 +53805,7 @@
         <v>3830.002</v>
       </c>
     </row>
-    <row r="961" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A961" s="19" t="s">
         <v>378</v>
       </c>
@@ -54342,7 +54342,7 @@
         <v>3694.0030000000002</v>
       </c>
     </row>
-    <row r="974" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A974" s="19" t="s">
         <v>1033</v>
       </c>
@@ -54392,7 +54392,7 @@
         <v>3694.14</v>
       </c>
     </row>
-    <row r="975" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A975" s="19" t="s">
         <v>1180</v>
       </c>
@@ -54433,7 +54433,7 @@
         <v>3694.1510000000003</v>
       </c>
     </row>
-    <row r="976" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A976" s="19" t="s">
         <v>1181</v>
       </c>
@@ -54471,7 +54471,7 @@
         <v>3694.1610000000001</v>
       </c>
     </row>
-    <row r="977" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A977" s="19" t="s">
         <v>1183</v>
       </c>
@@ -54509,7 +54509,7 @@
         <v>3694.1619999999998</v>
       </c>
     </row>
-    <row r="978" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A978" s="19" t="s">
         <v>204</v>
       </c>
@@ -54550,7 +54550,7 @@
         <v>3694.1710000000003</v>
       </c>
     </row>
-    <row r="979" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A979" s="19" t="s">
         <v>1036</v>
       </c>
@@ -54594,7 +54594,7 @@
         <v>3694.172</v>
       </c>
     </row>
-    <row r="980" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A980" s="19" t="s">
         <v>203</v>
       </c>
@@ -54717,7 +54717,7 @@
         <v>3699.0010000000002</v>
       </c>
     </row>
-    <row r="983" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A983" s="19" t="s">
         <v>920</v>
       </c>
@@ -54758,7 +54758,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="984" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A984" s="19" t="s">
         <v>495</v>
       </c>
@@ -54790,7 +54790,7 @@
         <v>3702.0010000000002</v>
       </c>
     </row>
-    <row r="985" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A985" s="19" t="s">
         <v>1257</v>
       </c>
@@ -54822,7 +54822,7 @@
         <v>3702.002</v>
       </c>
     </row>
-    <row r="986" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A986" s="19" t="s">
         <v>22</v>
       </c>
@@ -54854,7 +54854,7 @@
         <v>3702.0030000000002</v>
       </c>
     </row>
-    <row r="987" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A987" s="19" t="s">
         <v>836</v>
       </c>
@@ -54898,7 +54898,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="988" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A988" s="19" t="s">
         <v>496</v>
       </c>
@@ -54939,7 +54939,7 @@
         <v>3707.0010000000002</v>
       </c>
     </row>
-    <row r="989" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A989" s="19" t="s">
         <v>1099</v>
       </c>
@@ -54977,7 +54977,7 @@
         <v>3707.002</v>
       </c>
     </row>
-    <row r="990" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A990" s="19" t="s">
         <v>1101</v>
       </c>
@@ -55015,7 +55015,7 @@
         <v>3707.0030000000002</v>
       </c>
     </row>
-    <row r="991" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A991" s="19" t="s">
         <v>1281</v>
       </c>
@@ -55050,7 +55050,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="992" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A992" s="19" t="s">
         <v>1138</v>
       </c>
@@ -55082,7 +55082,7 @@
         <v>3709.0010000000002</v>
       </c>
     </row>
-    <row r="993" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A993" s="19" t="s">
         <v>990</v>
       </c>
@@ -55114,7 +55114,7 @@
         <v>3709.002</v>
       </c>
     </row>
-    <row r="994" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A994" s="19" t="s">
         <v>380</v>
       </c>
@@ -55146,7 +55146,7 @@
         <v>3709.0030000000002</v>
       </c>
     </row>
-    <row r="995" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A995" s="19" t="s">
         <v>1268</v>
       </c>
@@ -55190,7 +55190,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="996" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A996" s="19" t="s">
         <v>72</v>
       </c>
@@ -55231,7 +55231,7 @@
         <v>3714.0010000000002</v>
       </c>
     </row>
-    <row r="997" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A997" s="19" t="s">
         <v>1255</v>
       </c>
@@ -55272,7 +55272,7 @@
         <v>3714.002</v>
       </c>
     </row>
-    <row r="998" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A998" s="19" t="s">
         <v>381</v>
       </c>
@@ -55398,7 +55398,7 @@
         <v>3716.0010000000002</v>
       </c>
     </row>
-    <row r="1001" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1001" s="19" t="s">
         <v>837</v>
       </c>
@@ -55442,7 +55442,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="1002" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1002" s="19" t="s">
         <v>497</v>
       </c>
@@ -55617,7 +55617,7 @@
         <v>3721.0010000000002</v>
       </c>
     </row>
-    <row r="1007" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1007" s="19" t="s">
         <v>223</v>
       </c>
@@ -55661,7 +55661,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="1008" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1008" s="19" t="s">
         <v>1072</v>
       </c>
@@ -55702,7 +55702,7 @@
         <v>3813.0010000000002</v>
       </c>
     </row>
-    <row r="1009" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1009" s="19" t="s">
         <v>54</v>
       </c>
@@ -55747,7 +55747,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="1010" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1010" s="19" t="s">
         <v>542</v>
       </c>
@@ -55788,7 +55788,7 @@
         <v>3814.0010000000002</v>
       </c>
     </row>
-    <row r="1011" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1011" s="19" t="s">
         <v>1463</v>
       </c>
@@ -55830,7 +55830,7 @@
         <v>3814.18</v>
       </c>
     </row>
-    <row r="1012" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1012" s="19" t="s">
         <v>1467</v>
       </c>
@@ -55871,7 +55871,7 @@
         <v>3814.181</v>
       </c>
     </row>
-    <row r="1013" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1013" s="19" t="s">
         <v>58</v>
       </c>
@@ -55916,7 +55916,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="1014" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1014" s="19" t="s">
         <v>1038</v>
       </c>
@@ -55957,7 +55957,7 @@
         <v>3740.0010000000002</v>
       </c>
     </row>
-    <row r="1015" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1015" s="19" t="s">
         <v>1465</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>3740.18</v>
       </c>
     </row>
-    <row r="1016" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1016" s="19" t="s">
         <v>1468</v>
       </c>
@@ -56040,7 +56040,7 @@
         <v>3740.181</v>
       </c>
     </row>
-    <row r="1017" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1017" s="19" t="s">
         <v>55</v>
       </c>
@@ -56085,7 +56085,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="1018" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1018" s="19" t="s">
         <v>577</v>
       </c>
@@ -56381,7 +56381,7 @@
         <v>3727.0010000000002</v>
       </c>
     </row>
-    <row r="1025" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1025" s="19" t="s">
         <v>217</v>
       </c>
@@ -56428,7 +56428,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="1026" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1026" s="19" t="s">
         <v>108</v>
       </c>
@@ -56469,7 +56469,7 @@
         <v>3730.0010000000002</v>
       </c>
     </row>
-    <row r="1027" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1027" s="19" t="s">
         <v>49</v>
       </c>
@@ -56516,7 +56516,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="1028" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1028" s="19" t="s">
         <v>109</v>
       </c>
@@ -56557,7 +56557,7 @@
         <v>3731.0010000000002</v>
       </c>
     </row>
-    <row r="1029" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1029" s="19" t="s">
         <v>46</v>
       </c>
@@ -56604,7 +56604,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="1030" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1030" s="19" t="s">
         <v>47</v>
       </c>
@@ -56646,7 +56646,7 @@
         <v>3732.0010000000002</v>
       </c>
     </row>
-    <row r="1031" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1031" s="19" t="s">
         <v>1435</v>
       </c>
@@ -56686,7 +56686,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="1032" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1032" s="19" t="s">
         <v>1436</v>
       </c>
@@ -56718,7 +56718,7 @@
         <v>3733.0010000000002</v>
       </c>
     </row>
-    <row r="1033" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1033" s="19" t="s">
         <v>56</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="1034" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1034" s="19" t="s">
         <v>578</v>
       </c>
@@ -57298,7 +57298,7 @@
         <v>3752.0030000000002</v>
       </c>
     </row>
-    <row r="1047" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1047" s="19" t="s">
         <v>1449</v>
       </c>
@@ -59036,7 +59036,7 @@
         <v>3788.0030000000002</v>
       </c>
     </row>
-    <row r="1088" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1088" s="19" t="s">
         <v>210</v>
       </c>
@@ -59083,7 +59083,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="1089" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1089" s="19" t="s">
         <v>88</v>
       </c>
@@ -59127,7 +59127,7 @@
         <v>3789.0010000000002</v>
       </c>
     </row>
-    <row r="1090" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1090" s="19" t="s">
         <v>278</v>
       </c>
@@ -59174,7 +59174,7 @@
         <v>3789.002</v>
       </c>
     </row>
-    <row r="1091" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1091" s="19" t="s">
         <v>284</v>
       </c>
@@ -59221,7 +59221,7 @@
         <v>3789.0030000000002</v>
       </c>
     </row>
-    <row r="1092" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1092" s="19" t="s">
         <v>211</v>
       </c>
@@ -59268,7 +59268,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="1093" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1093" s="19" t="s">
         <v>89</v>
       </c>
@@ -59312,7 +59312,7 @@
         <v>3790.0010000000002</v>
       </c>
     </row>
-    <row r="1094" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1094" s="19" t="s">
         <v>279</v>
       </c>
@@ -59359,7 +59359,7 @@
         <v>3790.002</v>
       </c>
     </row>
-    <row r="1095" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1095" s="19" t="s">
         <v>285</v>
       </c>
@@ -59406,7 +59406,7 @@
         <v>3790.0030000000002</v>
       </c>
     </row>
-    <row r="1096" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1096" s="19" t="s">
         <v>212</v>
       </c>
@@ -59453,7 +59453,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="1097" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1097" s="19" t="s">
         <v>214</v>
       </c>
@@ -59494,7 +59494,7 @@
         <v>3791.0010000000002</v>
       </c>
     </row>
-    <row r="1098" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1098" s="19" t="s">
         <v>215</v>
       </c>
@@ -59535,7 +59535,7 @@
         <v>3791.002</v>
       </c>
     </row>
-    <row r="1099" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1099" s="19" t="s">
         <v>216</v>
       </c>
@@ -59576,7 +59576,7 @@
         <v>3791.0030000000002</v>
       </c>
     </row>
-    <row r="1100" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1100" s="19" t="s">
         <v>162</v>
       </c>
@@ -59615,7 +59615,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="1101" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1101" s="19" t="s">
         <v>615</v>
       </c>
@@ -59650,7 +59650,7 @@
         <v>3792.0010000000002</v>
       </c>
     </row>
-    <row r="1102" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1102" s="19" t="s">
         <v>1312</v>
       </c>
@@ -59697,7 +59697,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="1103" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1103" s="19" t="s">
         <v>1313</v>
       </c>
@@ -59738,7 +59738,7 @@
         <v>3793.0010000000002</v>
       </c>
     </row>
-    <row r="1104" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1104" s="19" t="s">
         <v>1314</v>
       </c>
@@ -59779,7 +59779,7 @@
         <v>3793.002</v>
       </c>
     </row>
-    <row r="1105" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1105" s="19" t="s">
         <v>1315</v>
       </c>
@@ -60401,7 +60401,7 @@
         <v>3804.0010000000002</v>
       </c>
     </row>
-    <row r="1120" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1120" s="19" t="s">
         <v>693</v>
       </c>
@@ -60445,7 +60445,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="1121" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1121" s="19" t="s">
         <v>612</v>
       </c>
@@ -60486,7 +60486,7 @@
         <v>3807.0010000000002</v>
       </c>
     </row>
-    <row r="1122" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1122" s="19" t="s">
         <v>110</v>
       </c>
@@ -60533,7 +60533,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="1123" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1123" s="19" t="s">
         <v>112</v>
       </c>
@@ -60574,7 +60574,7 @@
         <v>3810.0010000000002</v>
       </c>
     </row>
-    <row r="1124" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1124" s="19" t="s">
         <v>1238</v>
       </c>
@@ -60618,7 +60618,7 @@
         <v>3810.002</v>
       </c>
     </row>
-    <row r="1125" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1125" s="19" t="s">
         <v>1240</v>
       </c>
@@ -60662,7 +60662,7 @@
         <v>3810.0030000000002</v>
       </c>
     </row>
-    <row r="1126" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1126" s="19" t="s">
         <v>111</v>
       </c>
@@ -60709,7 +60709,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="1127" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1127" s="19" t="s">
         <v>113</v>
       </c>
@@ -60750,7 +60750,7 @@
         <v>3811.0010000000002</v>
       </c>
     </row>
-    <row r="1128" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1128" s="19" t="s">
         <v>1239</v>
       </c>
@@ -60794,7 +60794,7 @@
         <v>3811.002</v>
       </c>
     </row>
-    <row r="1129" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1129" s="19" t="s">
         <v>1241</v>
       </c>
@@ -60838,7 +60838,7 @@
         <v>3811.0030000000002</v>
       </c>
     </row>
-    <row r="1130" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1130" s="19" t="s">
         <v>1332</v>
       </c>
@@ -60879,7 +60879,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="1131" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1131" s="19" t="s">
         <v>1333</v>
       </c>
@@ -60915,7 +60915,7 @@
         <v>3812.0010000000002</v>
       </c>
     </row>
-    <row r="1132" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1132" s="19" t="s">
         <v>586</v>
       </c>
@@ -60959,7 +60959,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="1133" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1133" s="19" t="s">
         <v>858</v>
       </c>
@@ -61000,7 +61000,7 @@
         <v>3816.0010000000002</v>
       </c>
     </row>
-    <row r="1134" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1134" s="19" t="s">
         <v>1040</v>
       </c>
@@ -61041,7 +61041,7 @@
         <v>3816.002</v>
       </c>
     </row>
-    <row r="1135" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1135" s="19" t="s">
         <v>352</v>
       </c>
@@ -61289,7 +61289,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="1142" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1142" s="19" t="s">
         <v>525</v>
       </c>
@@ -61324,7 +61324,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="1143" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1143" s="19" t="s">
         <v>145</v>
       </c>
@@ -61362,7 +61362,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="1144" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1144" s="19" t="s">
         <v>146</v>
       </c>
@@ -61400,7 +61400,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="1145" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1145" s="19" t="s">
         <v>80</v>
       </c>
@@ -61476,7 +61476,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="1147" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1147" s="19" t="s">
         <v>147</v>
       </c>
@@ -61549,7 +61549,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="1149" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1149" s="19" t="s">
         <v>1421</v>
       </c>
@@ -62009,7 +62009,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="1162" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1162" s="19" t="s">
         <v>1459</v>
       </c>
@@ -62425,7 +62425,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="1174" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1174" s="19" t="s">
         <v>1472</v>
       </c>
@@ -62457,7 +62457,7 @@
         <v>4385.26</v>
       </c>
     </row>
-    <row r="1175" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1175" s="19" t="s">
         <v>757</v>
       </c>
@@ -62947,7 +62947,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="1189" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1189" s="19" t="s">
         <v>68</v>
       </c>
@@ -63052,7 +63052,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="1192" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1192" s="19" t="s">
         <v>616</v>
       </c>
@@ -63300,7 +63300,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="1199" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1199" s="19" t="s">
         <v>945</v>
       </c>
@@ -64465,7 +64465,7 @@
         <v>4424.0050000000001</v>
       </c>
     </row>
-    <row r="1234" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1234" s="19" t="s">
         <v>1162</v>
       </c>
@@ -64491,7 +64491,7 @@
         <v>1229</v>
       </c>
       <c r="J1234" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="Z1234" t="s">
         <v>2784</v>
@@ -64500,7 +64500,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="1235" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1235" s="19" t="s">
         <v>606</v>
       </c>
@@ -64526,13 +64526,13 @@
         <v>1230</v>
       </c>
       <c r="J1235" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1235">
         <v>4425.0039999999999</v>
       </c>
     </row>
-    <row r="1236" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1236" s="19" t="s">
         <v>591</v>
       </c>
@@ -64558,13 +64558,13 @@
         <v>1231</v>
       </c>
       <c r="J1236" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1236">
         <v>4425.0050000000001</v>
       </c>
     </row>
-    <row r="1237" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1237" s="19" t="s">
         <v>1163</v>
       </c>
@@ -64590,7 +64590,7 @@
         <v>1232</v>
       </c>
       <c r="J1237" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="Z1237" t="s">
         <v>2785</v>
@@ -64599,7 +64599,7 @@
         <v>4426</v>
       </c>
     </row>
-    <row r="1238" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1238" s="19" t="s">
         <v>706</v>
       </c>
@@ -64625,13 +64625,13 @@
         <v>1233</v>
       </c>
       <c r="J1238" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1238">
         <v>4426.0039999999999</v>
       </c>
     </row>
-    <row r="1239" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1239" s="19" t="s">
         <v>592</v>
       </c>
@@ -64657,13 +64657,13 @@
         <v>1234</v>
       </c>
       <c r="J1239" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1239">
         <v>4426.0050000000001</v>
       </c>
     </row>
-    <row r="1240" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1240" s="19" t="s">
         <v>1164</v>
       </c>
@@ -64689,7 +64689,7 @@
         <v>1235</v>
       </c>
       <c r="J1240" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="Z1240" t="s">
         <v>2786</v>
@@ -64698,7 +64698,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="1241" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1241" s="19" t="s">
         <v>707</v>
       </c>
@@ -64724,13 +64724,13 @@
         <v>1236</v>
       </c>
       <c r="J1241" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1241">
         <v>4427.0039999999999</v>
       </c>
     </row>
-    <row r="1242" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1242" s="19" t="s">
         <v>593</v>
       </c>
@@ -64756,13 +64756,13 @@
         <v>1237</v>
       </c>
       <c r="J1242" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1242">
         <v>4427.0050000000001</v>
       </c>
     </row>
-    <row r="1243" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1243" s="19" t="s">
         <v>1263</v>
       </c>
@@ -64788,7 +64788,7 @@
         <v>1238</v>
       </c>
       <c r="J1243" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="Z1243" t="s">
         <v>2787</v>
@@ -64797,7 +64797,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="1244" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1244" s="19" t="s">
         <v>472</v>
       </c>
@@ -64823,13 +64823,13 @@
         <v>1239</v>
       </c>
       <c r="J1244" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1244">
         <v>4428.0039999999999</v>
       </c>
     </row>
-    <row r="1245" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1245" s="19" t="s">
         <v>371</v>
       </c>
@@ -64855,13 +64855,13 @@
         <v>1240</v>
       </c>
       <c r="J1245" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AA1245">
         <v>4428.0050000000001</v>
       </c>
     </row>
-    <row r="1246" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1246" s="19" t="s">
         <v>1264</v>
       </c>
@@ -64887,7 +64887,7 @@
         <v>1241</v>
       </c>
       <c r="J1246" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="W1246" s="5"/>
       <c r="Z1246" t="s">
@@ -64897,7 +64897,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="1247" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1247" s="19" t="s">
         <v>708</v>
       </c>
@@ -64923,14 +64923,14 @@
         <v>1242</v>
       </c>
       <c r="J1247" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="W1247" s="5"/>
       <c r="AA1247">
         <v>4429.0039999999999</v>
       </c>
     </row>
-    <row r="1248" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1248" s="19" t="s">
         <v>157</v>
       </c>
@@ -64956,14 +64956,14 @@
         <v>1243</v>
       </c>
       <c r="J1248" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="W1248" s="5"/>
       <c r="AA1248">
         <v>4429.0050000000001</v>
       </c>
     </row>
-    <row r="1249" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1249" s="19" t="s">
         <v>1189</v>
       </c>
@@ -64989,7 +64989,7 @@
         <v>1244</v>
       </c>
       <c r="J1249" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="U1249" t="s">
         <v>1452</v>
@@ -65007,7 +65007,7 @@
         <v>4429.2700000000004</v>
       </c>
     </row>
-    <row r="1250" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1250" s="19" t="s">
         <v>1192</v>
       </c>
@@ -65033,7 +65033,7 @@
         <v>1245</v>
       </c>
       <c r="J1250" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="U1250" t="s">
         <v>1452</v>
@@ -65048,7 +65048,7 @@
         <v>4429.2740000000003</v>
       </c>
     </row>
-    <row r="1251" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1251" s="19" t="s">
         <v>775</v>
       </c>
@@ -65074,7 +65074,7 @@
         <v>1246</v>
       </c>
       <c r="J1251" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="U1251" t="s">
         <v>1452</v>
@@ -65089,7 +65089,7 @@
         <v>4429.2750000000005</v>
       </c>
     </row>
-    <row r="1252" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1252" s="19" t="s">
         <v>1553</v>
       </c>
@@ -65133,7 +65133,7 @@
         <v>4429.28</v>
       </c>
     </row>
-    <row r="1253" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1253" s="19" t="s">
         <v>1555</v>
       </c>
@@ -65174,7 +65174,7 @@
         <v>4429.2839999999997</v>
       </c>
     </row>
-    <row r="1254" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1254" s="19" t="s">
         <v>1554</v>
       </c>
@@ -65218,7 +65218,7 @@
         <v>4429.2849999999999</v>
       </c>
     </row>
-    <row r="1255" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1255" s="19" t="s">
         <v>1265</v>
       </c>
@@ -65253,7 +65253,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="1256" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1256" s="19" t="s">
         <v>709</v>
       </c>
@@ -65285,7 +65285,7 @@
         <v>4430.0039999999999</v>
       </c>
     </row>
-    <row r="1257" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1257" s="19" t="s">
         <v>158</v>
       </c>
@@ -65317,7 +65317,7 @@
         <v>4430.0050000000001</v>
       </c>
     </row>
-    <row r="1258" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1258" s="19" t="s">
         <v>1266</v>
       </c>
@@ -65353,7 +65353,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="1259" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1259" s="19" t="s">
         <v>710</v>
       </c>
@@ -65386,7 +65386,7 @@
         <v>4431.0039999999999</v>
       </c>
     </row>
-    <row r="1260" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1260" s="19" t="s">
         <v>354</v>
       </c>
@@ -65419,7 +65419,7 @@
         <v>4431.0050000000001</v>
       </c>
     </row>
-    <row r="1261" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1261" s="19" t="s">
         <v>1190</v>
       </c>
@@ -65460,7 +65460,7 @@
         <v>4431.2700000000004</v>
       </c>
     </row>
-    <row r="1262" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1262" s="19" t="s">
         <v>1193</v>
       </c>
@@ -65498,7 +65498,7 @@
         <v>4431.2740000000003</v>
       </c>
     </row>
-    <row r="1263" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1263" s="19" t="s">
         <v>776</v>
       </c>
@@ -65536,7 +65536,7 @@
         <v>4431.2750000000005</v>
       </c>
     </row>
-    <row r="1264" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1264" s="19" t="s">
         <v>1048</v>
       </c>
@@ -65572,7 +65572,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="1265" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1265" s="19" t="s">
         <v>711</v>
       </c>
@@ -65605,7 +65605,7 @@
         <v>4432.0039999999999</v>
       </c>
     </row>
-    <row r="1266" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1266" s="19" t="s">
         <v>590</v>
       </c>
@@ -65638,7 +65638,7 @@
         <v>4432.0050000000001</v>
       </c>
     </row>
-    <row r="1267" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1267" s="19" t="s">
         <v>1191</v>
       </c>
@@ -65679,7 +65679,7 @@
         <v>4432.2700000000004</v>
       </c>
     </row>
-    <row r="1268" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1268" s="19" t="s">
         <v>774</v>
       </c>
@@ -65720,7 +65720,7 @@
         <v>4432.2740000000003</v>
       </c>
     </row>
-    <row r="1269" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1269" s="19" t="s">
         <v>777</v>
       </c>
@@ -65761,7 +65761,7 @@
         <v>4432.2750000000005</v>
       </c>
     </row>
-    <row r="1270" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1270" s="19" t="s">
         <v>1049</v>
       </c>
@@ -65796,7 +65796,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="1271" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1271" s="19" t="s">
         <v>712</v>
       </c>
@@ -65829,7 +65829,7 @@
         <v>4433.0039999999999</v>
       </c>
     </row>
-    <row r="1272" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1272" s="19" t="s">
         <v>372</v>
       </c>
@@ -65861,7 +65861,7 @@
         <v>4433.0050000000001</v>
       </c>
     </row>
-    <row r="1273" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1273" s="19" t="s">
         <v>1050</v>
       </c>
@@ -65896,7 +65896,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="1274" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1274" s="19" t="s">
         <v>942</v>
       </c>
@@ -65928,7 +65928,7 @@
         <v>4434.0039999999999</v>
       </c>
     </row>
-    <row r="1275" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1275" s="19" t="s">
         <v>598</v>
       </c>
@@ -67000,7 +67000,7 @@
         <v>4450.32</v>
       </c>
     </row>
-    <row r="1306" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1306" s="19" t="s">
         <v>1437</v>
       </c>
@@ -67038,7 +67038,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="1307" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1307" s="19" t="s">
         <v>1438</v>
       </c>
@@ -67070,7 +67070,7 @@
         <v>4451.3</v>
       </c>
     </row>
-    <row r="1308" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1308" s="19" t="s">
         <v>1439</v>
       </c>
@@ -67102,7 +67102,7 @@
         <v>4451.3100000000004</v>
       </c>
     </row>
-    <row r="1309" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1309" s="19" t="s">
         <v>1446</v>
       </c>
@@ -67134,7 +67134,7 @@
         <v>4451.32</v>
       </c>
     </row>
-    <row r="1310" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1310" s="19" t="s">
         <v>178</v>
       </c>
@@ -67172,7 +67172,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="1311" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1311" s="19" t="s">
         <v>179</v>
       </c>
@@ -67210,7 +67210,7 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="1312" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1312" s="19" t="s">
         <v>180</v>
       </c>
@@ -67359,7 +67359,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="1316" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1316" s="19" t="s">
         <v>645</v>
       </c>
@@ -67394,7 +67394,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="1317" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1317" s="19" t="s">
         <v>646</v>
       </c>
@@ -67429,7 +67429,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="1318" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1318" s="19" t="s">
         <v>647</v>
       </c>
@@ -67464,7 +67464,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="1319" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1319" s="19" t="s">
         <v>48</v>
       </c>
@@ -67508,7 +67508,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="1320" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1320" s="19" t="s">
         <v>1252</v>
       </c>
@@ -67552,7 +67552,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="1321" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1321" s="19" t="s">
         <v>1165</v>
       </c>
@@ -67891,7 +67891,7 @@
         <v>4465.38</v>
       </c>
     </row>
-    <row r="1331" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1331" s="19" t="s">
         <v>2334</v>
       </c>
@@ -67929,7 +67929,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="1332" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1332" s="19" t="s">
         <v>1242</v>
       </c>
@@ -67967,7 +67967,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="1333" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1333" s="19" t="s">
         <v>1243</v>
       </c>
@@ -68005,7 +68005,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="1334" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1334" s="19" t="s">
         <v>1244</v>
       </c>
@@ -68043,7 +68043,7 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="1335" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1335" s="19" t="s">
         <v>37</v>
       </c>
@@ -68081,7 +68081,7 @@
         <v>4469</v>
       </c>
     </row>
-    <row r="1336" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1336" s="19" t="s">
         <v>38</v>
       </c>
@@ -68119,7 +68119,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="1337" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1337" s="19" t="s">
         <v>39</v>
       </c>
@@ -68926,7 +68926,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="1358" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1358" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1358" s="19" t="s">
         <v>1374</v>
       </c>
@@ -69104,7 +69104,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1363" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1363" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1363" s="19" t="s">
         <v>1470</v>
       </c>
@@ -69293,7 +69293,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1369" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1369" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1369" s="19" t="s">
         <v>1462</v>
       </c>
@@ -70330,7 +70330,7 @@
         <v>22077</v>
       </c>
     </row>
-    <row r="1400" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1400" s="19" t="s">
         <v>259</v>
       </c>
@@ -70391,7 +70391,7 @@
         <v>22078</v>
       </c>
     </row>
-    <row r="1402" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1402" s="19" t="s">
         <v>260</v>
       </c>
@@ -70484,7 +70484,7 @@
         <v>22081</v>
       </c>
     </row>
-    <row r="1405" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1405" s="19" t="s">
         <v>751</v>
       </c>
@@ -70545,7 +70545,7 @@
         <v>22082</v>
       </c>
     </row>
-    <row r="1407" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1407" s="19" t="s">
         <v>753</v>
       </c>
@@ -71528,7 +71528,7 @@
         <v>22927</v>
       </c>
     </row>
-    <row r="1436" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1436" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1436" s="19" t="s">
         <v>1213</v>
       </c>
@@ -71566,7 +71566,7 @@
         <v>22928</v>
       </c>
     </row>
-    <row r="1437" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1437" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1437" s="19" t="s">
         <v>1214</v>
       </c>
@@ -71766,7 +71766,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1444" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1444" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1444" s="19" t="s">
         <v>1466</v>
       </c>
@@ -71872,7 +71872,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1448" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1448" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1448" s="19" t="s">
         <v>657</v>
       </c>
@@ -71924,7 +71924,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1450" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1450" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1450" s="19" t="s">
         <v>902</v>
       </c>
@@ -72054,7 +72054,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1455" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1455" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1455" s="19" t="s">
         <v>675</v>
       </c>
@@ -72080,7 +72080,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1456" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1456" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1456" s="19" t="s">
         <v>677</v>
       </c>
@@ -72106,7 +72106,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1457" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1457" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1457" s="19" t="s">
         <v>2248</v>
       </c>
@@ -72132,7 +72132,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1458" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1458" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1458" s="19" t="s">
         <v>213</v>
       </c>
@@ -72184,7 +72184,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1460" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1460" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1460" s="19" t="s">
         <v>672</v>
       </c>
@@ -72210,7 +72210,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1461" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1461" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1461" s="19" t="s">
         <v>676</v>
       </c>
@@ -72236,7 +72236,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1462" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1462" s="19" t="s">
         <v>1430</v>
       </c>
@@ -72288,7 +72288,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1464" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1464" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1464" s="19" t="s">
         <v>295</v>
       </c>
@@ -72314,7 +72314,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1465" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1465" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1465" s="19" t="s">
         <v>296</v>
       </c>
@@ -72394,7 +72394,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1468" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1468" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1468" s="19" t="s">
         <v>1464</v>
       </c>
@@ -72498,7 +72498,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1472" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1472" s="19" t="s">
         <v>421</v>
       </c>
@@ -72576,7 +72576,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1475" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1475" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1475" s="19" t="s">
         <v>2338</v>
       </c>
@@ -72602,7 +72602,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1476" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1476" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1476" s="19" t="s">
         <v>2344</v>
       </c>
@@ -72706,7 +72706,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1480" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1480" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1480" s="19" t="s">
         <v>2383</v>
       </c>
@@ -72732,7 +72732,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1481" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1481" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1481" s="19" t="s">
         <v>209</v>
       </c>
@@ -72758,7 +72758,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1482" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1482" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1482" s="19" t="s">
         <v>208</v>
       </c>
@@ -72836,7 +72836,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1485" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1485" s="19" t="s">
         <v>412</v>
       </c>
@@ -72862,7 +72862,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1486" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1486" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1486" s="19" t="s">
         <v>2249</v>
       </c>
@@ -72888,7 +72888,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1487" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1487" s="19" t="s">
         <v>1561</v>
       </c>
@@ -72914,7 +72914,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1488" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1488" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1488" s="19" t="s">
         <v>1562</v>
       </c>
@@ -72940,7 +72940,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1489" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1489" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1489" s="19" t="s">
         <v>1563</v>
       </c>
@@ -72966,7 +72966,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1490" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1490" s="19" t="s">
         <v>1564</v>
       </c>
@@ -72992,7 +72992,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1491" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1491" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1491" s="19" t="s">
         <v>1565</v>
       </c>
@@ -73018,7 +73018,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1492" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1492" s="19" t="s">
         <v>1566</v>
       </c>
@@ -73044,7 +73044,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1493" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1493" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1493" s="19" t="s">
         <v>1567</v>
       </c>
@@ -73070,7 +73070,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1494" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1494" s="19" t="s">
         <v>1568</v>
       </c>
@@ -73096,7 +73096,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1495" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1495" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1495" s="19" t="s">
         <v>1569</v>
       </c>
@@ -73122,7 +73122,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1496" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1496" s="19" t="s">
         <v>1570</v>
       </c>
@@ -73148,7 +73148,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1497" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1497" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1497" s="19" t="s">
         <v>1571</v>
       </c>
@@ -73174,7 +73174,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1498" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1498" s="19" t="s">
         <v>1572</v>
       </c>
@@ -73200,7 +73200,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1499" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1499" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1499" s="19" t="s">
         <v>1586</v>
       </c>
@@ -73226,7 +73226,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1500" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1500" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1500" s="19" t="s">
         <v>1587</v>
       </c>
@@ -73252,7 +73252,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1501" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1501" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1501" s="19" t="s">
         <v>1588</v>
       </c>
@@ -73278,7 +73278,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1502" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1502" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1502" s="19" t="s">
         <v>1589</v>
       </c>
@@ -73304,7 +73304,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1503" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1503" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1503" s="19" t="s">
         <v>1552</v>
       </c>
@@ -73342,7 +73342,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1504" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1504" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1504" s="19" t="s">
         <v>1551</v>
       </c>
@@ -73380,7 +73380,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1505" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1505" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1505" s="19" t="s">
         <v>1531</v>
       </c>
@@ -73415,7 +73415,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1506" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1506" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1506" s="19" t="s">
         <v>1537</v>
       </c>
@@ -73450,7 +73450,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1507" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1507" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1507" s="19" t="s">
         <v>1545</v>
       </c>
@@ -73485,7 +73485,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1508" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1508" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1508" s="19" t="s">
         <v>1541</v>
       </c>
@@ -73520,7 +73520,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1509" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1509" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1509" s="19" t="s">
         <v>1529</v>
       </c>
@@ -73552,7 +73552,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1510" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1510" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1510" s="19" t="s">
         <v>1535</v>
       </c>
@@ -73584,7 +73584,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1511" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1511" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1511" s="19" t="s">
         <v>1111</v>
       </c>
@@ -73613,7 +73613,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1512" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1512" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1512" s="19" t="s">
         <v>900</v>
       </c>
@@ -73642,7 +73642,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1513" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1513" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1513" s="19" t="s">
         <v>1117</v>
       </c>
@@ -73674,7 +73674,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1514" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1514" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1514" s="19" t="s">
         <v>1110</v>
       </c>
@@ -73706,7 +73706,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1515" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1515" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1515" s="19" t="s">
         <v>1113</v>
       </c>
@@ -73738,7 +73738,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1516" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1516" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1516" s="19" t="s">
         <v>1106</v>
       </c>
@@ -73770,7 +73770,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1517" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1517" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1517" s="19" t="s">
         <v>1533</v>
       </c>
@@ -73802,7 +73802,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1518" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1518" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1518" s="19" t="s">
         <v>1116</v>
       </c>
@@ -73834,7 +73834,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1519" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1519" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1519" s="19" t="s">
         <v>1109</v>
       </c>
@@ -73866,7 +73866,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1520" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1520" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1520" s="19" t="s">
         <v>1539</v>
       </c>
@@ -73898,7 +73898,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1521" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1521" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1521" s="19" t="s">
         <v>1547</v>
       </c>
@@ -73930,7 +73930,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1522" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1522" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1522" s="19" t="s">
         <v>1548</v>
       </c>
@@ -73962,7 +73962,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1523" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1523" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1523" s="19" t="s">
         <v>1543</v>
       </c>
@@ -73994,7 +73994,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1524" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1524" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1524" s="19" t="s">
         <v>1549</v>
       </c>
@@ -74026,7 +74026,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1525" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1525" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1525" s="19" t="s">
         <v>1112</v>
       </c>
@@ -74058,7 +74058,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1526" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1526" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1526" s="19" t="s">
         <v>901</v>
       </c>
@@ -74090,7 +74090,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1527" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1527" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1527" s="19" t="s">
         <v>1114</v>
       </c>
@@ -74122,7 +74122,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1528" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1528" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1528" s="19" t="s">
         <v>1107</v>
       </c>
@@ -74154,7 +74154,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1529" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1529" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1529" s="19" t="s">
         <v>1115</v>
       </c>
@@ -74187,7 +74187,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1530" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1530" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1530" s="19" t="s">
         <v>1108</v>
       </c>
@@ -74220,7 +74220,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1531" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1531" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1531" s="19" t="s">
         <v>1573</v>
       </c>
@@ -74246,7 +74246,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1532" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1532" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1532" s="19" t="s">
         <v>1574</v>
       </c>
@@ -74272,7 +74272,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1533" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1533" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1533" s="19" t="s">
         <v>1575</v>
       </c>
@@ -74298,7 +74298,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1534" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1534" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1534" s="19" t="s">
         <v>1576</v>
       </c>
@@ -74324,7 +74324,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1535" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1535" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1535" s="19" t="s">
         <v>1577</v>
       </c>
@@ -74350,7 +74350,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1536" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1536" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1536" s="19" t="s">
         <v>1614</v>
       </c>
@@ -74376,7 +74376,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1537" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1537" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1537" s="19" t="s">
         <v>1606</v>
       </c>
@@ -74405,7 +74405,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1538" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1538" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1538" s="19" t="s">
         <v>1607</v>
       </c>
@@ -74434,7 +74434,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1539" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1539" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1539" s="19" t="s">
         <v>1608</v>
       </c>
@@ -74463,7 +74463,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1540" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1540" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1540" s="19" t="s">
         <v>1609</v>
       </c>
@@ -74492,7 +74492,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1541" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1541" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1541" s="19" t="s">
         <v>1610</v>
       </c>
@@ -74521,7 +74521,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1542" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1542" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1542" s="19" t="s">
         <v>1611</v>
       </c>
@@ -74550,7 +74550,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1543" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1543" s="19" t="s">
         <v>1612</v>
       </c>
@@ -74579,7 +74579,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1544" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1544" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1544" s="19" t="s">
         <v>1613</v>
       </c>
@@ -74608,7 +74608,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1545" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1545" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1545" s="19" t="s">
         <v>1590</v>
       </c>
@@ -74634,7 +74634,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1546" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1546" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1546" s="19" t="s">
         <v>1591</v>
       </c>
@@ -74660,7 +74660,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1547" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1547" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1547" s="19" t="s">
         <v>1592</v>
       </c>
@@ -74686,7 +74686,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1548" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1548" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1548" s="19" t="s">
         <v>1593</v>
       </c>
@@ -74712,7 +74712,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1549" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1549" s="19" t="s">
         <v>1594</v>
       </c>
@@ -74738,7 +74738,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1550" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1550" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1550" s="19" t="s">
         <v>1595</v>
       </c>
@@ -74764,7 +74764,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1551" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1551" s="19" t="s">
         <v>1596</v>
       </c>
@@ -74790,7 +74790,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1552" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1552" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1552" s="19" t="s">
         <v>1597</v>
       </c>
@@ -74816,7 +74816,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1553" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1553" s="19" t="s">
         <v>1623</v>
       </c>
@@ -74849,7 +74849,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1554" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1554" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1554" s="19" t="s">
         <v>1622</v>
       </c>
@@ -74891,7 +74891,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1555" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1555" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1555" s="19" t="s">
         <v>1598</v>
       </c>
@@ -74920,7 +74920,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1556" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1556" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1556" s="19" t="s">
         <v>1599</v>
       </c>
@@ -74949,7 +74949,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1557" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1557" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1557" s="19" t="s">
         <v>1600</v>
       </c>
@@ -74978,7 +74978,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1558" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1558" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1558" s="19" t="s">
         <v>1601</v>
       </c>
@@ -75007,7 +75007,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1559" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1559" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1559" s="19" t="s">
         <v>1602</v>
       </c>
@@ -75036,7 +75036,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1560" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1560" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1560" s="19" t="s">
         <v>1603</v>
       </c>
@@ -75065,7 +75065,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1561" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1561" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1561" s="19" t="s">
         <v>1604</v>
       </c>
@@ -75094,7 +75094,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1562" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1562" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1562" s="19" t="s">
         <v>1605</v>
       </c>
@@ -75123,7 +75123,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1563" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1563" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1563" s="19" t="s">
         <v>1532</v>
       </c>
@@ -75155,7 +75155,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1564" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1564" s="19" t="s">
         <v>1538</v>
       </c>
@@ -75187,7 +75187,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1565" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1565" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1565" s="19" t="s">
         <v>1546</v>
       </c>
@@ -75219,7 +75219,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1566" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1566" s="19" t="s">
         <v>1542</v>
       </c>
@@ -75251,7 +75251,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1567" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1567" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1567" s="19" t="s">
         <v>2308</v>
       </c>
@@ -75283,7 +75283,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1568" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1568" s="19" t="s">
         <v>1530</v>
       </c>
@@ -75318,7 +75318,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1569" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1569" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1569" s="19" t="s">
         <v>1536</v>
       </c>
@@ -75353,7 +75353,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1570" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1570" s="19" t="s">
         <v>1544</v>
       </c>
@@ -75388,7 +75388,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1571" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1571" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1571" s="19" t="s">
         <v>1540</v>
       </c>
@@ -75423,7 +75423,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1572" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1572" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1572" s="19" t="s">
         <v>1528</v>
       </c>
@@ -75455,7 +75455,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1573" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1573" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1573" s="19" t="s">
         <v>1534</v>
       </c>
@@ -75487,7 +75487,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1574" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1574" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1574" s="19" t="s">
         <v>1578</v>
       </c>
@@ -75513,7 +75513,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1575" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1575" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1575" s="19" t="s">
         <v>1579</v>
       </c>
@@ -75539,7 +75539,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1576" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1576" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1576" s="19" t="s">
         <v>1580</v>
       </c>
@@ -75565,7 +75565,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1577" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1577" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1577" s="19" t="s">
         <v>1581</v>
       </c>
@@ -75591,7 +75591,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1578" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1578" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1578" s="19" t="s">
         <v>1582</v>
       </c>
@@ -75617,7 +75617,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1579" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1579" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1579" s="19" t="s">
         <v>1583</v>
       </c>
@@ -75643,7 +75643,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1580" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1580" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1580" s="19" t="s">
         <v>1584</v>
       </c>
@@ -75669,7 +75669,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1581" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1581" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1581" s="19" t="s">
         <v>1585</v>
       </c>
@@ -75699,18 +75699,7 @@
       <c r="A1582"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB1581">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="*"/>
-        <filter val="H"/>
-        <filter val="SH"/>
-        <filter val="SHL"/>
-        <filter val="SHLM"/>
-        <filter val="SHM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB1581"/>
   <sortState ref="A2:AB1580">
     <sortCondition ref="AA2:AA1580"/>
     <sortCondition ref="AB2:AB1580"/>
@@ -75718,7 +75707,7 @@
   </sortState>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P859:P869 P1166:P1172 P206 P126:P129 P134:P136 P138:P139 P141:P143 P121:P122 P112:P119 P157:P173 P175:P181 P148:P155 P146 P242:P243 P240 P238 P235 P229:P230 P222:P226 P217 P215 P787:P818 P1466:P1484 P1145:P1159 G1136:G1137 P544:P554 P369:P385 P354:P365 P1199:P1204 G1443:G1484 P1444:P1464 P303:P350 P1089:P1108 P1175:P1189 P289 F1061 P247 P400:P435 P508:P519 P822:P829 P447:P462 F782:F832 P833:P852 H291:H294 P1048:P1083 J295:J386 F291:F293 H387:H398 H1439:I1440 P556:P567 F1118:G1120 P1332:P1359 H4:H5 F2:J3 J6 H7 J1377:J1438 P1377:P1438 F1441:F1486 G1441 F1377:H1438 F6:H6 F1062:H1113 F295:H386 P1003:P1004 P618:P660 F618:G647 G648:G677 F649:F677 P742:P752 P699:P731 P924:P953 P966:P999 F834:F891 P872:P891 P570:P601 H1136:H1138 J399:J567 P468:P475 P480:P503 J570:J903 P664:P696 P523:P539 P762:P780 P782 P1206:P1330 F1132:H1135 P898:P903 P906:P911 H904:H905 J253:J293 H1360:H1376 I253:I1438 F1139:H1359 J1139:J1359 P1195:P1196 P1123:P1137 F1123:G1131 J1118:J1137 H1114:H1131 P1007:P1012 H1441:J1486 F906:H1059 F892:H903 F399:H567 F570:H617 F678:H781 G782:H891 H618:H677 G1060:H1061 H568:H569 J906:J1113 I4:I250 J8:J250 F8:H250 F253:H290 F251:J252 F1487:J1581 P251:P253 P1487:P1575"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P859:P869 P1166:P1172 P206 P126:P129 P134:P136 P138:P139 P141:P143 P121:P122 P112:P119 P157:P173 P175:P181 P148:P155 P146 P242:P243 P240 P238 P235 P229:P230 P222:P226 P217 P215 P787:P818 P1466:P1484 P1145:P1159 G1136:G1137 P544:P554 P369:P385 P354:P365 P1199:P1204 G1443:G1484 P1444:P1464 P303:P350 P1089:P1108 P1175:P1189 P289 F1061 P247 P400:P435 P508:P519 P822:P829 P447:P462 F782:F832 P833:P852 H291:H294 P1048:P1083 J295:J386 F291:F293 H387:H398 H1439:I1440 P556:P567 F1118:G1120 P1332:P1359 H4:H5 F2:J3 J6 H7 J1377:J1438 P1377:P1438 F1441:F1486 G1441 F1377:H1438 F6:H6 F1062:H1113 F295:H386 P1003:P1004 P618:P660 F618:G647 G648:G677 F649:F677 P742:P752 P699:P731 P924:P953 P966:P999 F834:F891 P872:P891 P570:P601 H1136:H1138 J399:J567 P468:P475 P480:P503 J570:J903 P664:P696 P523:P539 P762:P780 P782 P1206:P1330 F1132:H1135 P898:P903 P906:P911 H904:H905 J253:J293 H1360:H1376 I253:I1438 F1139:H1359 P1487:P1575 P1195:P1196 P1123:P1137 F1123:G1131 J1118:J1137 H1114:H1131 P1007:P1012 H1441:J1486 F906:H1059 F892:H903 F399:H567 F570:H617 F678:H781 G782:H891 H618:H677 G1060:H1061 H568:H569 J906:J1113 I4:I250 J8:J250 F8:H250 F253:H290 F251:J252 F1487:J1581 P251:P253 J1139:J1359"/>
   </dataValidations>
   <pageMargins left="0.38" right="0" top="0" bottom="0.2" header="0" footer="0"/>
   <pageSetup scale="60" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/absGlyphList/absGlyphList.xlsx
+++ b/absGlyphList/absGlyphList.xlsx
@@ -62057,7 +62057,7 @@
         <v>1137</v>
       </c>
       <c r="J1157" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="Z1157" t="s">
         <v>2748</v>

--- a/absGlyphList/absGlyphList.xlsx
+++ b/absGlyphList/absGlyphList.xlsx
@@ -16033,10 +16033,10 @@
   <dimension ref="A1:AB1642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1159" sqref="G1159"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25309,7 +25309,7 @@
         <v>263</v>
       </c>
       <c r="J266" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K266" t="s">
         <v>460</v>
@@ -25353,7 +25353,7 @@
         <v>264</v>
       </c>
       <c r="J267" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K267" t="s">
         <v>688</v>
@@ -25394,7 +25394,7 @@
         <v>265</v>
       </c>
       <c r="J268" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K268" t="s">
         <v>1234</v>
@@ -25435,7 +25435,7 @@
         <v>266</v>
       </c>
       <c r="J269" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K269" t="s">
         <v>1205</v>
@@ -25476,7 +25476,7 @@
         <v>267</v>
       </c>
       <c r="J270" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K270" t="s">
         <v>460</v>
@@ -25520,7 +25520,7 @@
         <v>268</v>
       </c>
       <c r="J271" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K271" t="s">
         <v>688</v>
@@ -25561,7 +25561,7 @@
         <v>269</v>
       </c>
       <c r="J272" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K272" t="s">
         <v>1234</v>
@@ -25602,7 +25602,7 @@
         <v>270</v>
       </c>
       <c r="J273" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K273" t="s">
         <v>1205</v>
@@ -26150,7 +26150,7 @@
         <v>283</v>
       </c>
       <c r="J286" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K286" t="s">
         <v>460</v>
@@ -26194,7 +26194,7 @@
         <v>284</v>
       </c>
       <c r="J287" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K287" t="s">
         <v>688</v>
@@ -26235,7 +26235,7 @@
         <v>285</v>
       </c>
       <c r="J288" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K288" t="s">
         <v>1234</v>
@@ -26276,7 +26276,7 @@
         <v>286</v>
       </c>
       <c r="J289" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K289" t="s">
         <v>1205</v>
@@ -26317,7 +26317,7 @@
         <v>287</v>
       </c>
       <c r="J290" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K290" t="s">
         <v>460</v>
@@ -26364,7 +26364,7 @@
         <v>288</v>
       </c>
       <c r="J291" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K291" t="s">
         <v>688</v>
@@ -26408,7 +26408,7 @@
         <v>289</v>
       </c>
       <c r="J292" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K292" t="s">
         <v>1234</v>
@@ -26452,7 +26452,7 @@
         <v>290</v>
       </c>
       <c r="J293" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K293" t="s">
         <v>1205</v>
@@ -26496,7 +26496,7 @@
         <v>291</v>
       </c>
       <c r="J294" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K294" t="s">
         <v>460</v>
@@ -26543,7 +26543,7 @@
         <v>292</v>
       </c>
       <c r="J295" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K295" t="s">
         <v>688</v>
@@ -26587,7 +26587,7 @@
         <v>293</v>
       </c>
       <c r="J296" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K296" t="s">
         <v>1234</v>
@@ -26631,7 +26631,7 @@
         <v>294</v>
       </c>
       <c r="J297" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K297" t="s">
         <v>1205</v>
@@ -27477,7 +27477,7 @@
         <v>315</v>
       </c>
       <c r="J318" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K318" t="s">
         <v>164</v>
@@ -27521,7 +27521,7 @@
         <v>316</v>
       </c>
       <c r="J319" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K319" t="s">
         <v>50</v>
@@ -27562,7 +27562,7 @@
         <v>317</v>
       </c>
       <c r="J320" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K320" t="s">
         <v>1248</v>
@@ -27603,7 +27603,7 @@
         <v>318</v>
       </c>
       <c r="J321" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K321" t="s">
         <v>153</v>
@@ -28324,7 +28324,7 @@
         <v>335</v>
       </c>
       <c r="J338" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K338" t="s">
         <v>164</v>
@@ -28368,7 +28368,7 @@
         <v>336</v>
       </c>
       <c r="J339" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K339" t="s">
         <v>50</v>
@@ -28409,7 +28409,7 @@
         <v>337</v>
       </c>
       <c r="J340" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K340" t="s">
         <v>1248</v>
@@ -28450,7 +28450,7 @@
         <v>338</v>
       </c>
       <c r="J341" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K341" t="s">
         <v>153</v>
@@ -28658,7 +28658,7 @@
         <v>343</v>
       </c>
       <c r="J346" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K346" t="s">
         <v>164</v>
@@ -28702,7 +28702,7 @@
         <v>344</v>
       </c>
       <c r="J347" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K347" t="s">
         <v>50</v>
@@ -28743,7 +28743,7 @@
         <v>345</v>
       </c>
       <c r="J348" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K348" t="s">
         <v>1248</v>
@@ -28784,7 +28784,7 @@
         <v>346</v>
       </c>
       <c r="J349" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K349" t="s">
         <v>153</v>
@@ -29158,8 +29158,8 @@
       <c r="I358" s="24">
         <v>355</v>
       </c>
-      <c r="J358" s="13" t="s">
-        <v>2253</v>
+      <c r="J358" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K358" t="s">
         <v>164</v>
@@ -29246,8 +29246,8 @@
       <c r="I360" s="24">
         <v>357</v>
       </c>
-      <c r="J360" s="13" t="s">
-        <v>2253</v>
+      <c r="J360" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K360" t="s">
         <v>50</v>
@@ -29325,8 +29325,8 @@
       <c r="I362" s="24">
         <v>359</v>
       </c>
-      <c r="J362" s="13" t="s">
-        <v>2253</v>
+      <c r="J362" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K362" t="s">
         <v>1248</v>
@@ -29401,8 +29401,8 @@
       <c r="I364" s="24">
         <v>361</v>
       </c>
-      <c r="J364" s="13" t="s">
-        <v>2253</v>
+      <c r="J364" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K364" t="s">
         <v>153</v>
@@ -29480,8 +29480,8 @@
       <c r="I366" s="24">
         <v>363</v>
       </c>
-      <c r="J366" s="13" t="s">
-        <v>2253</v>
+      <c r="J366" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K366" t="s">
         <v>164</v>
@@ -29574,8 +29574,8 @@
       <c r="I368" s="24">
         <v>365</v>
       </c>
-      <c r="J368" s="13" t="s">
-        <v>2253</v>
+      <c r="J368" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K368" t="s">
         <v>50</v>
@@ -29659,8 +29659,8 @@
       <c r="I370" s="24">
         <v>367</v>
       </c>
-      <c r="J370" s="13" t="s">
-        <v>2253</v>
+      <c r="J370" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K370" t="s">
         <v>1248</v>
@@ -29741,8 +29741,8 @@
       <c r="I372" s="24">
         <v>369</v>
       </c>
-      <c r="J372" s="13" t="s">
-        <v>2253</v>
+      <c r="J372" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K372" t="s">
         <v>153</v>
@@ -33492,8 +33492,8 @@
       <c r="I461" s="24">
         <v>458</v>
       </c>
-      <c r="J461" s="13" t="s">
-        <v>2253</v>
+      <c r="J461" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K461" t="s">
         <v>883</v>
@@ -33580,8 +33580,8 @@
       <c r="I463" s="24">
         <v>460</v>
       </c>
-      <c r="J463" s="13" t="s">
-        <v>2253</v>
+      <c r="J463" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K463" t="s">
         <v>471</v>
@@ -33659,8 +33659,8 @@
       <c r="I465" s="24">
         <v>462</v>
       </c>
-      <c r="J465" s="13" t="s">
-        <v>2253</v>
+      <c r="J465" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K465" t="s">
         <v>1277</v>
@@ -33735,8 +33735,8 @@
       <c r="I467" s="24">
         <v>464</v>
       </c>
-      <c r="J467" s="13" t="s">
-        <v>2253</v>
+      <c r="J467" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K467" t="s">
         <v>387</v>
@@ -34067,7 +34067,7 @@
         <v>472</v>
       </c>
       <c r="J475" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K475" t="s">
         <v>883</v>
@@ -34114,7 +34114,7 @@
         <v>473</v>
       </c>
       <c r="J476" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K476" t="s">
         <v>471</v>
@@ -34158,7 +34158,7 @@
         <v>474</v>
       </c>
       <c r="J477" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K477" t="s">
         <v>1277</v>
@@ -34202,7 +34202,7 @@
         <v>475</v>
       </c>
       <c r="J478" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K478" t="s">
         <v>387</v>
@@ -34246,7 +34246,7 @@
         <v>476</v>
       </c>
       <c r="J479" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K479" t="s">
         <v>883</v>
@@ -34293,7 +34293,7 @@
         <v>477</v>
       </c>
       <c r="J480" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K480" t="s">
         <v>471</v>
@@ -34337,7 +34337,7 @@
         <v>478</v>
       </c>
       <c r="J481" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K481" t="s">
         <v>1277</v>
@@ -34381,7 +34381,7 @@
         <v>479</v>
       </c>
       <c r="J482" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K482" t="s">
         <v>387</v>
@@ -34425,7 +34425,7 @@
         <v>480</v>
       </c>
       <c r="J483" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K483" t="s">
         <v>883</v>
@@ -34472,7 +34472,7 @@
         <v>481</v>
       </c>
       <c r="J484" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K484" t="s">
         <v>471</v>
@@ -34516,7 +34516,7 @@
         <v>482</v>
       </c>
       <c r="J485" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K485" t="s">
         <v>1277</v>
@@ -34560,7 +34560,7 @@
         <v>483</v>
       </c>
       <c r="J486" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K486" t="s">
         <v>387</v>
@@ -34604,7 +34604,7 @@
         <v>484</v>
       </c>
       <c r="J487" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K487" t="s">
         <v>883</v>
@@ -34651,7 +34651,7 @@
         <v>485</v>
       </c>
       <c r="J488" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K488" t="s">
         <v>471</v>
@@ -34692,7 +34692,7 @@
         <v>486</v>
       </c>
       <c r="J489" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K489" t="s">
         <v>1277</v>
@@ -34733,7 +34733,7 @@
         <v>487</v>
       </c>
       <c r="J490" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K490" t="s">
         <v>387</v>
@@ -35292,7 +35292,7 @@
         <v>501</v>
       </c>
       <c r="J504" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K504" t="s">
         <v>749</v>
@@ -35336,7 +35336,7 @@
         <v>502</v>
       </c>
       <c r="J505" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K505" t="s">
         <v>1032</v>
@@ -35374,7 +35374,7 @@
         <v>503</v>
       </c>
       <c r="J506" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K506" t="s">
         <v>1477</v>
@@ -36571,7 +36571,7 @@
         <v>533</v>
       </c>
       <c r="J536" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K536" t="s">
         <v>749</v>
@@ -36615,7 +36615,7 @@
         <v>534</v>
       </c>
       <c r="J537" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K537" t="s">
         <v>1032</v>
@@ -36653,7 +36653,7 @@
         <v>535</v>
       </c>
       <c r="J538" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K538" t="s">
         <v>1477</v>
@@ -36887,7 +36887,7 @@
         <v>541</v>
       </c>
       <c r="J544" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K544" t="s">
         <v>749</v>
@@ -36934,7 +36934,7 @@
         <v>542</v>
       </c>
       <c r="J545" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K545" t="s">
         <v>1032</v>
@@ -36975,7 +36975,7 @@
         <v>543</v>
       </c>
       <c r="J546" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K546" t="s">
         <v>1477</v>
@@ -37639,7 +37639,7 @@
         <v>559</v>
       </c>
       <c r="J562" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K562" t="s">
         <v>479</v>
@@ -37683,7 +37683,7 @@
         <v>560</v>
       </c>
       <c r="J563" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K563" t="s">
         <v>349</v>
@@ -37809,7 +37809,7 @@
         <v>563</v>
       </c>
       <c r="J566" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K566" t="s">
         <v>479</v>
@@ -37854,7 +37854,7 @@
         <v>564</v>
       </c>
       <c r="J567" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K567" t="s">
         <v>349</v>
@@ -38669,7 +38669,7 @@
         <v>583</v>
       </c>
       <c r="J586" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K586" t="s">
         <v>479</v>
@@ -38713,7 +38713,7 @@
         <v>584</v>
       </c>
       <c r="J587" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K587" t="s">
         <v>349</v>
@@ -38754,7 +38754,7 @@
         <v>585</v>
       </c>
       <c r="J588" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K588" t="s">
         <v>479</v>
@@ -38801,7 +38801,7 @@
         <v>586</v>
       </c>
       <c r="J589" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K589" t="s">
         <v>349</v>
@@ -38933,7 +38933,7 @@
         <v>589</v>
       </c>
       <c r="J592" s="13" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="T592" s="7">
         <v>6.1</v>
@@ -38968,7 +38968,7 @@
         <v>590</v>
       </c>
       <c r="J593" s="13" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="T593" s="7">
         <v>6.1</v>
@@ -40072,7 +40072,7 @@
         <v>617</v>
       </c>
       <c r="J620" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K620" t="s">
         <v>798</v>
@@ -40116,7 +40116,7 @@
         <v>618</v>
       </c>
       <c r="J621" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K621" t="s">
         <v>906</v>
@@ -40157,7 +40157,7 @@
         <v>619</v>
       </c>
       <c r="J622" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K622" t="s">
         <v>23</v>
@@ -40198,7 +40198,7 @@
         <v>620</v>
       </c>
       <c r="J623" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K623" t="s">
         <v>241</v>
@@ -40406,7 +40406,7 @@
         <v>625</v>
       </c>
       <c r="J628" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K628" t="s">
         <v>798</v>
@@ -40453,7 +40453,7 @@
         <v>626</v>
       </c>
       <c r="J629" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K629" t="s">
         <v>906</v>
@@ -40497,7 +40497,7 @@
         <v>627</v>
       </c>
       <c r="J630" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K630" t="s">
         <v>23</v>
@@ -40541,7 +40541,7 @@
         <v>628</v>
       </c>
       <c r="J631" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K631" t="s">
         <v>241</v>
@@ -40585,7 +40585,7 @@
         <v>629</v>
       </c>
       <c r="J632" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K632" t="s">
         <v>798</v>
@@ -40629,7 +40629,7 @@
         <v>630</v>
       </c>
       <c r="J633" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K633" t="s">
         <v>906</v>
@@ -40670,7 +40670,7 @@
         <v>631</v>
       </c>
       <c r="J634" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K634" t="s">
         <v>23</v>
@@ -40711,7 +40711,7 @@
         <v>632</v>
       </c>
       <c r="J635" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K635" t="s">
         <v>241</v>
@@ -45311,7 +45311,7 @@
         <v>745</v>
       </c>
       <c r="J748" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K748" t="s">
         <v>669</v>
@@ -45355,7 +45355,7 @@
         <v>746</v>
       </c>
       <c r="J749" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K749" t="s">
         <v>937</v>
@@ -45396,7 +45396,7 @@
         <v>747</v>
       </c>
       <c r="J750" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K750" t="s">
         <v>95</v>
@@ -45437,7 +45437,7 @@
         <v>748</v>
       </c>
       <c r="J751" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K751" t="s">
         <v>1152</v>
@@ -45638,8 +45638,8 @@
       <c r="I756" s="24">
         <v>753</v>
       </c>
-      <c r="J756" s="13" t="s">
-        <v>2253</v>
+      <c r="J756" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K756" t="s">
         <v>669</v>
@@ -45726,8 +45726,8 @@
       <c r="I758" s="24">
         <v>755</v>
       </c>
-      <c r="J758" s="13" t="s">
-        <v>2253</v>
+      <c r="J758" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K758" t="s">
         <v>937</v>
@@ -45805,8 +45805,8 @@
       <c r="I760" s="24">
         <v>757</v>
       </c>
-      <c r="J760" s="13" t="s">
-        <v>2253</v>
+      <c r="J760" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K760" t="s">
         <v>95</v>
@@ -45881,8 +45881,8 @@
       <c r="I762" s="24">
         <v>759</v>
       </c>
-      <c r="J762" s="13" t="s">
-        <v>2253</v>
+      <c r="J762" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K762" t="s">
         <v>1152</v>
@@ -48420,8 +48420,8 @@
       <c r="I824" s="24">
         <v>821</v>
       </c>
-      <c r="J824" s="13" t="s">
-        <v>2253</v>
+      <c r="J824" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K824" t="s">
         <v>235</v>
@@ -48508,8 +48508,8 @@
       <c r="I826" s="24">
         <v>823</v>
       </c>
-      <c r="J826" s="13" t="s">
-        <v>2253</v>
+      <c r="J826" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K826" t="s">
         <v>1026</v>
@@ -48587,8 +48587,8 @@
       <c r="I828" s="24">
         <v>825</v>
       </c>
-      <c r="J828" s="13" t="s">
-        <v>2253</v>
+      <c r="J828" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K828" t="s">
         <v>695</v>
@@ -48663,8 +48663,8 @@
       <c r="I830" s="24">
         <v>827</v>
       </c>
-      <c r="J830" s="13" t="s">
-        <v>2253</v>
+      <c r="J830" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K830" t="s">
         <v>265</v>
@@ -48910,7 +48910,7 @@
         <v>833</v>
       </c>
       <c r="J836" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K836" t="s">
         <v>235</v>
@@ -48957,7 +48957,7 @@
         <v>834</v>
       </c>
       <c r="J837" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K837" t="s">
         <v>1026</v>
@@ -49001,7 +49001,7 @@
         <v>835</v>
       </c>
       <c r="J838" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K838" t="s">
         <v>695</v>
@@ -49045,7 +49045,7 @@
         <v>836</v>
       </c>
       <c r="J839" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K839" t="s">
         <v>265</v>
@@ -49089,7 +49089,7 @@
         <v>837</v>
       </c>
       <c r="J840" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K840" t="s">
         <v>235</v>
@@ -49133,7 +49133,7 @@
         <v>838</v>
       </c>
       <c r="J841" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K841" t="s">
         <v>1026</v>
@@ -49174,7 +49174,7 @@
         <v>839</v>
       </c>
       <c r="J842" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K842" t="s">
         <v>695</v>
@@ -49215,7 +49215,7 @@
         <v>840</v>
       </c>
       <c r="J843" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K843" t="s">
         <v>265</v>
@@ -49387,7 +49387,7 @@
         <v>845</v>
       </c>
       <c r="J848" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K848" t="s">
         <v>235</v>
@@ -49432,7 +49432,7 @@
         <v>846</v>
       </c>
       <c r="J849" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K849" t="s">
         <v>1026</v>
@@ -49474,7 +49474,7 @@
         <v>847</v>
       </c>
       <c r="J850" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K850" t="s">
         <v>695</v>
@@ -49516,7 +49516,7 @@
         <v>848</v>
       </c>
       <c r="J851" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K851" t="s">
         <v>265</v>
@@ -50062,7 +50062,7 @@
         <v>861</v>
       </c>
       <c r="J864" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K864" t="s">
         <v>235</v>
@@ -50109,7 +50109,7 @@
         <v>862</v>
       </c>
       <c r="J865" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K865" t="s">
         <v>1026</v>
@@ -50153,7 +50153,7 @@
         <v>863</v>
       </c>
       <c r="J866" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K866" t="s">
         <v>695</v>
@@ -50197,7 +50197,7 @@
         <v>864</v>
       </c>
       <c r="J867" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K867" t="s">
         <v>265</v>
@@ -50241,7 +50241,7 @@
         <v>865</v>
       </c>
       <c r="J868" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K868" t="s">
         <v>235</v>
@@ -50285,7 +50285,7 @@
         <v>866</v>
       </c>
       <c r="J869" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K869" t="s">
         <v>1026</v>
@@ -50326,7 +50326,7 @@
         <v>867</v>
       </c>
       <c r="J870" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K870" t="s">
         <v>695</v>
@@ -50367,7 +50367,7 @@
         <v>868</v>
       </c>
       <c r="J871" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K871" t="s">
         <v>265</v>
@@ -50578,7 +50578,7 @@
         <v>873</v>
       </c>
       <c r="J876" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K876" t="s">
         <v>235</v>
@@ -50622,7 +50622,7 @@
         <v>874</v>
       </c>
       <c r="J877" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K877" t="s">
         <v>1026</v>
@@ -50663,7 +50663,7 @@
         <v>875</v>
       </c>
       <c r="J878" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K878" t="s">
         <v>695</v>
@@ -50704,7 +50704,7 @@
         <v>876</v>
       </c>
       <c r="J879" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K879" t="s">
         <v>265</v>
@@ -50745,7 +50745,7 @@
         <v>877</v>
       </c>
       <c r="J880" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K880" t="s">
         <v>235</v>
@@ -50792,7 +50792,7 @@
         <v>878</v>
       </c>
       <c r="J881" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K881" t="s">
         <v>1026</v>
@@ -50836,7 +50836,7 @@
         <v>879</v>
       </c>
       <c r="J882" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K882" t="s">
         <v>695</v>
@@ -50880,7 +50880,7 @@
         <v>880</v>
       </c>
       <c r="J883" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K883" t="s">
         <v>265</v>
@@ -54204,7 +54204,7 @@
         <v>961</v>
       </c>
       <c r="J964" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K964" t="s">
         <v>597</v>
@@ -54248,7 +54248,7 @@
         <v>962</v>
       </c>
       <c r="J965" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K965" t="s">
         <v>1093</v>
@@ -54289,7 +54289,7 @@
         <v>963</v>
       </c>
       <c r="J966" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K966" t="s">
         <v>1248</v>
@@ -54330,7 +54330,7 @@
         <v>964</v>
       </c>
       <c r="J967" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K967" t="s">
         <v>153</v>
@@ -54896,7 +54896,7 @@
         <v>977</v>
       </c>
       <c r="J980" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K980" t="s">
         <v>597</v>
@@ -54940,7 +54940,7 @@
         <v>978</v>
       </c>
       <c r="J981" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K981" t="s">
         <v>1093</v>
@@ -54981,7 +54981,7 @@
         <v>979</v>
       </c>
       <c r="J982" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K982" t="s">
         <v>1248</v>
@@ -55022,7 +55022,7 @@
         <v>980</v>
       </c>
       <c r="J983" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K983" t="s">
         <v>153</v>
@@ -55934,7 +55934,7 @@
         <v>1002</v>
       </c>
       <c r="J1005" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1005" t="s">
         <v>1270</v>
@@ -55975,7 +55975,7 @@
         <v>1003</v>
       </c>
       <c r="J1006" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AA1006">
         <v>3702.0010000000002</v>
@@ -56007,7 +56007,7 @@
         <v>1004</v>
       </c>
       <c r="J1007" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AA1007">
         <v>3702.002</v>
@@ -56039,7 +56039,7 @@
         <v>1005</v>
       </c>
       <c r="J1008" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AA1008">
         <v>3702.0030000000002</v>
@@ -56071,7 +56071,7 @@
         <v>1006</v>
       </c>
       <c r="J1009" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1009" t="s">
         <v>1270</v>
@@ -56115,7 +56115,7 @@
         <v>1007</v>
       </c>
       <c r="J1010" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1010" t="s">
         <v>495</v>
@@ -56153,7 +56153,7 @@
         <v>1008</v>
       </c>
       <c r="J1011" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1011" t="s">
         <v>1257</v>
@@ -56191,7 +56191,7 @@
         <v>1009</v>
       </c>
       <c r="J1012" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1012" t="s">
         <v>22</v>
@@ -56232,7 +56232,7 @@
         <v>1010</v>
       </c>
       <c r="J1013" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="Z1013" t="s">
         <v>2645</v>
@@ -56267,7 +56267,7 @@
         <v>1011</v>
       </c>
       <c r="J1014" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AA1014">
         <v>3709.0010000000002</v>
@@ -56363,7 +56363,7 @@
         <v>1014</v>
       </c>
       <c r="J1017" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1017" t="s">
         <v>1281</v>
@@ -56407,7 +56407,7 @@
         <v>1015</v>
       </c>
       <c r="J1018" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1018" t="s">
         <v>1181</v>
@@ -56448,7 +56448,7 @@
         <v>1016</v>
       </c>
       <c r="J1019" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1019" t="s">
         <v>1183</v>
@@ -56489,7 +56489,7 @@
         <v>1017</v>
       </c>
       <c r="J1020" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1020" t="s">
         <v>380</v>
@@ -56615,7 +56615,7 @@
         <v>1020</v>
       </c>
       <c r="J1023" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1023" t="s">
         <v>1270</v>
@@ -56659,7 +56659,7 @@
         <v>1021</v>
       </c>
       <c r="J1024" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1024" t="s">
         <v>495</v>
@@ -56834,7 +56834,7 @@
         <v>1026</v>
       </c>
       <c r="J1029" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1029" t="s">
         <v>233</v>
@@ -56878,7 +56878,7 @@
         <v>1027</v>
       </c>
       <c r="J1030" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1030" t="s">
         <v>1273</v>
@@ -56919,7 +56919,7 @@
         <v>1028</v>
       </c>
       <c r="J1031" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1031" t="s">
         <v>233</v>
@@ -56964,7 +56964,7 @@
         <v>1029</v>
       </c>
       <c r="J1032" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1032" t="s">
         <v>1273</v>
@@ -57001,8 +57001,8 @@
       <c r="I1033" s="24">
         <v>1030</v>
       </c>
-      <c r="J1033" s="13" t="s">
-        <v>2253</v>
+      <c r="J1033" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K1033" t="s">
         <v>233</v>
@@ -57046,8 +57046,8 @@
       <c r="I1034" s="24">
         <v>1031</v>
       </c>
-      <c r="J1034" s="13" t="s">
-        <v>2253</v>
+      <c r="J1034" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K1034" t="s">
         <v>1273</v>
@@ -57088,7 +57088,7 @@
         <v>1032</v>
       </c>
       <c r="J1035" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1035" t="s">
         <v>233</v>
@@ -57133,7 +57133,7 @@
         <v>1033</v>
       </c>
       <c r="J1036" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1036" t="s">
         <v>1273</v>
@@ -57170,8 +57170,8 @@
       <c r="I1037" s="24">
         <v>1034</v>
       </c>
-      <c r="J1037" s="13" t="s">
-        <v>2253</v>
+      <c r="J1037" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K1037" t="s">
         <v>233</v>
@@ -57215,8 +57215,8 @@
       <c r="I1038" s="24">
         <v>1035</v>
       </c>
-      <c r="J1038" s="13" t="s">
-        <v>2253</v>
+      <c r="J1038" s="11" t="s">
+        <v>2252</v>
       </c>
       <c r="K1038" t="s">
         <v>1273</v>
@@ -57257,7 +57257,7 @@
         <v>1036</v>
       </c>
       <c r="J1039" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1039" t="s">
         <v>233</v>
@@ -57302,7 +57302,7 @@
         <v>1037</v>
       </c>
       <c r="J1040" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1040" t="s">
         <v>1273</v>
@@ -57598,7 +57598,7 @@
         <v>1044</v>
       </c>
       <c r="J1047" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1047" t="s">
         <v>233</v>
@@ -57642,7 +57642,7 @@
         <v>1045</v>
       </c>
       <c r="J1048" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1048" t="s">
         <v>1273</v>
@@ -57686,7 +57686,7 @@
         <v>1046</v>
       </c>
       <c r="J1049" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1049" t="s">
         <v>233</v>
@@ -57730,7 +57730,7 @@
         <v>1047</v>
       </c>
       <c r="J1050" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1050" t="s">
         <v>1273</v>
@@ -57774,7 +57774,7 @@
         <v>1048</v>
       </c>
       <c r="J1051" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1051" t="s">
         <v>233</v>
@@ -57819,7 +57819,7 @@
         <v>1049</v>
       </c>
       <c r="J1052" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1052" t="s">
         <v>1273</v>
@@ -57863,7 +57863,7 @@
         <v>1050</v>
       </c>
       <c r="J1053" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="T1053" s="7">
         <v>7</v>
@@ -57900,7 +57900,7 @@
         <v>1051</v>
       </c>
       <c r="J1054" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="T1054" s="7">
         <v>7</v>
@@ -57935,7 +57935,7 @@
         <v>1052</v>
       </c>
       <c r="J1055" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1055" t="s">
         <v>233</v>
@@ -57979,7 +57979,7 @@
         <v>1053</v>
       </c>
       <c r="J1056" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1056" t="s">
         <v>1273</v>
@@ -58515,7 +58515,7 @@
         <v>1066</v>
       </c>
       <c r="J1069" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="T1069" s="7">
         <v>7</v>
@@ -60253,7 +60253,7 @@
         <v>1107</v>
       </c>
       <c r="J1110" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1110" t="s">
         <v>796</v>
@@ -60300,7 +60300,7 @@
         <v>1108</v>
       </c>
       <c r="J1111" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1111" t="s">
         <v>1035</v>
@@ -60344,7 +60344,7 @@
         <v>1109</v>
       </c>
       <c r="J1112" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1112" t="s">
         <v>1248</v>
@@ -60391,7 +60391,7 @@
         <v>1110</v>
       </c>
       <c r="J1113" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1113" t="s">
         <v>153</v>
@@ -60438,7 +60438,7 @@
         <v>1111</v>
       </c>
       <c r="J1114" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1114" t="s">
         <v>796</v>
@@ -60485,7 +60485,7 @@
         <v>1112</v>
       </c>
       <c r="J1115" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1115" t="s">
         <v>1035</v>
@@ -60529,7 +60529,7 @@
         <v>1113</v>
       </c>
       <c r="J1116" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1116" t="s">
         <v>1248</v>
@@ -60576,7 +60576,7 @@
         <v>1114</v>
       </c>
       <c r="J1117" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1117" t="s">
         <v>153</v>
@@ -60623,7 +60623,7 @@
         <v>1115</v>
       </c>
       <c r="J1118" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1118" t="s">
         <v>796</v>
@@ -60667,7 +60667,7 @@
         <v>1116</v>
       </c>
       <c r="J1119" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1119" t="s">
         <v>1035</v>
@@ -60708,7 +60708,7 @@
         <v>1117</v>
       </c>
       <c r="J1120" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1120" t="s">
         <v>1248</v>
@@ -60749,7 +60749,7 @@
         <v>1118</v>
       </c>
       <c r="J1121" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1121" t="s">
         <v>153</v>
@@ -60793,7 +60793,7 @@
         <v>1119</v>
       </c>
       <c r="J1122" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="U1122" s="4" t="s">
         <v>1416</v>
@@ -60832,7 +60832,7 @@
         <v>1120</v>
       </c>
       <c r="J1123" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="U1123" t="s">
         <v>1416</v>
@@ -60867,7 +60867,7 @@
         <v>1121</v>
       </c>
       <c r="J1124" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1124" t="s">
         <v>796</v>
@@ -60911,7 +60911,7 @@
         <v>1122</v>
       </c>
       <c r="J1125" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1125" t="s">
         <v>1035</v>
@@ -60952,7 +60952,7 @@
         <v>1123</v>
       </c>
       <c r="J1126" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1126" t="s">
         <v>1248</v>
@@ -60993,7 +60993,7 @@
         <v>1124</v>
       </c>
       <c r="J1127" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1127" t="s">
         <v>153</v>
@@ -61703,7 +61703,7 @@
         <v>1141</v>
       </c>
       <c r="J1144" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1144" t="s">
         <v>692</v>
@@ -61747,7 +61747,7 @@
         <v>1142</v>
       </c>
       <c r="J1145" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1145" t="s">
         <v>854</v>
@@ -61788,7 +61788,7 @@
         <v>1143</v>
       </c>
       <c r="J1146" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1146" t="s">
         <v>1248</v>
@@ -61832,7 +61832,7 @@
         <v>1144</v>
       </c>
       <c r="J1147" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1147" t="s">
         <v>153</v>
@@ -61879,7 +61879,7 @@
         <v>1145</v>
       </c>
       <c r="J1148" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1148" t="s">
         <v>692</v>
@@ -61923,7 +61923,7 @@
         <v>1146</v>
       </c>
       <c r="J1149" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1149" t="s">
         <v>854</v>
@@ -61964,7 +61964,7 @@
         <v>1147</v>
       </c>
       <c r="J1150" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1150" t="s">
         <v>1248</v>
@@ -62008,7 +62008,7 @@
         <v>1148</v>
       </c>
       <c r="J1151" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="K1151" t="s">
         <v>153</v>
@@ -62055,7 +62055,7 @@
         <v>1149</v>
       </c>
       <c r="J1152" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="T1152" s="7">
         <v>6.1</v>
@@ -62094,7 +62094,7 @@
         <v>1150</v>
       </c>
       <c r="J1153" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="T1153" s="7">
         <v>6.1</v>
@@ -62132,7 +62132,7 @@
         <v>1151</v>
       </c>
       <c r="J1154" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1154" t="s">
         <v>796</v>
@@ -62176,7 +62176,7 @@
         <v>1152</v>
       </c>
       <c r="J1155" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1155" t="s">
         <v>1035</v>
@@ -62217,7 +62217,7 @@
         <v>1153</v>
       </c>
       <c r="J1156" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1156" t="s">
         <v>1248</v>
@@ -62258,7 +62258,7 @@
         <v>1154</v>
       </c>
       <c r="J1157" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1157" t="s">
         <v>153</v>
@@ -64185,7 +64185,7 @@
         <v>1208</v>
       </c>
       <c r="J1212" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="Z1212" t="s">
         <v>2764</v>
@@ -64538,7 +64538,7 @@
         <v>1218</v>
       </c>
       <c r="J1222" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="Z1222" t="s">
         <v>2765</v>
@@ -68597,7 +68597,7 @@
         <v>1335</v>
       </c>
       <c r="J1339" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="Z1339" t="s">
         <v>2740</v>
@@ -68632,7 +68632,7 @@
         <v>1336</v>
       </c>
       <c r="J1340" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="Z1340" t="s">
         <v>2741</v>
@@ -68667,7 +68667,7 @@
         <v>1337</v>
       </c>
       <c r="J1341" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="Z1341" t="s">
         <v>2742</v>
@@ -68702,7 +68702,7 @@
         <v>1338</v>
       </c>
       <c r="J1342" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1342" t="s">
         <v>838</v>
@@ -68746,7 +68746,7 @@
         <v>1339</v>
       </c>
       <c r="J1343" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1343" t="s">
         <v>357</v>
@@ -73825,7 +73825,7 @@
         <v>1505</v>
       </c>
       <c r="J1509" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1509" t="s">
         <v>2797</v>
@@ -73877,7 +73877,7 @@
         <v>1507</v>
       </c>
       <c r="J1511" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1511" t="s">
         <v>2797</v>
@@ -74085,7 +74085,7 @@
         <v>1515</v>
       </c>
       <c r="J1519" s="12" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="AB1519" t="s">
         <v>2797</v>
@@ -74137,7 +74137,7 @@
         <v>1517</v>
       </c>
       <c r="J1521" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1521" t="s">
         <v>2797</v>
@@ -74163,7 +74163,7 @@
         <v>1518</v>
       </c>
       <c r="J1522" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1522" t="s">
         <v>2797</v>
@@ -74189,7 +74189,7 @@
         <v>1519</v>
       </c>
       <c r="J1523" s="12" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="AB1523" t="s">
         <v>2797</v>
@@ -74241,7 +74241,7 @@
         <v>1521</v>
       </c>
       <c r="J1525" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1525" t="s">
         <v>2797</v>
@@ -74267,7 +74267,7 @@
         <v>1522</v>
       </c>
       <c r="J1526" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1526" t="s">
         <v>2797</v>
@@ -74451,7 +74451,7 @@
         <v>1529</v>
       </c>
       <c r="J1533" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1533" t="s">
         <v>2797</v>
@@ -74685,7 +74685,7 @@
         <v>1538</v>
       </c>
       <c r="J1542" s="12" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="AB1542" t="s">
         <v>2797</v>
@@ -74711,7 +74711,7 @@
         <v>1539</v>
       </c>
       <c r="J1543" s="12" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="AB1543" t="s">
         <v>2797</v>
@@ -74789,7 +74789,7 @@
         <v>1542</v>
       </c>
       <c r="J1546" s="12" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AB1546" t="s">
         <v>2797</v>
@@ -74823,152 +74823,205 @@
     </row>
     <row r="1548" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1548" s="19" t="s">
-        <v>1559</v>
+        <v>1621</v>
       </c>
       <c r="B1548" s="32" t="s">
-        <v>3530</v>
+        <v>3566</v>
       </c>
       <c r="C1548" s="32" t="s">
-        <v>4696</v>
+        <v>4736</v>
       </c>
       <c r="E1548" s="23">
-        <v>1369</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="F1548" s="25"/>
       <c r="G1548" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1548" s="24">
-        <v>1390</v>
+        <v>768</v>
       </c>
       <c r="J1548" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1548" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="U1548" t="s">
+        <v>1387</v>
+      </c>
       <c r="AB1548" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1549" s="19" t="s">
-        <v>1560</v>
+        <v>1620</v>
       </c>
       <c r="B1549" s="32" t="s">
-        <v>3531</v>
+        <v>3567</v>
       </c>
       <c r="C1549" s="32" t="s">
-        <v>4697</v>
+        <v>4737</v>
       </c>
       <c r="E1549" s="23">
-        <v>1370</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="F1549" s="25"/>
       <c r="G1549" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1549" s="24">
-        <v>1391</v>
+        <v>787</v>
       </c>
       <c r="J1549" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1549" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1549" s="29" t="s">
+        <v>3125</v>
+      </c>
+      <c r="N1549" t="s">
+        <v>659</v>
+      </c>
+      <c r="T1549" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="U1549" t="s">
+        <v>1386</v>
+      </c>
       <c r="AB1549" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1550" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1550" s="19" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="B1550" s="32" t="s">
-        <v>3532</v>
+        <v>3540</v>
       </c>
       <c r="C1550" s="32" t="s">
-        <v>4698</v>
+        <v>4712</v>
       </c>
       <c r="E1550" s="23">
-        <v>1371</v>
+        <v>1143</v>
       </c>
       <c r="G1550" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1550" s="24">
-        <v>1392</v>
+        <v>981</v>
       </c>
       <c r="J1550" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1550" t="s">
+        <v>380</v>
+      </c>
+      <c r="L1550" s="29" t="s">
+        <v>3337</v>
+      </c>
+      <c r="M1550" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1550" t="s">
+        <v>1548</v>
+      </c>
       <c r="AB1550" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1551" s="19" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="B1551" s="32" t="s">
-        <v>3595</v>
+        <v>3541</v>
       </c>
       <c r="C1551" s="32" t="s">
-        <v>4699</v>
+        <v>4713</v>
       </c>
       <c r="E1551" s="23">
-        <v>1374</v>
+        <v>981</v>
       </c>
       <c r="G1551" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1551" s="24">
-        <v>1396</v>
+        <v>991</v>
       </c>
       <c r="J1551" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1551" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L1551" s="29" t="s">
+        <v>3319</v>
+      </c>
+      <c r="M1551" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1551" t="s">
+        <v>1548</v>
+      </c>
       <c r="AB1551" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1552" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1552" s="19" t="s">
-        <v>1563</v>
+        <v>2305</v>
       </c>
       <c r="B1552" s="32" t="s">
-        <v>3596</v>
+        <v>3576</v>
       </c>
       <c r="C1552" s="32" t="s">
-        <v>4700</v>
+        <v>4746</v>
       </c>
       <c r="E1552" s="23">
-        <v>1375</v>
+        <v>1182</v>
+      </c>
+      <c r="F1552" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1552" s="24" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="H1552" s="24">
-        <v>1397</v>
+        <v>1189</v>
       </c>
       <c r="J1552" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="U1552" t="s">
+        <v>1452</v>
+      </c>
       <c r="AB1552" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1553" s="19" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="B1553" s="32" t="s">
-        <v>3597</v>
+        <v>3530</v>
       </c>
       <c r="C1553" s="32" t="s">
-        <v>4701</v>
+        <v>4696</v>
       </c>
       <c r="E1553" s="23">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G1553" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1553" s="24">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="J1553" s="13" t="s">
         <v>2243</v>
@@ -74979,22 +75032,22 @@
     </row>
     <row r="1554" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1554" s="19" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="B1554" s="32" t="s">
-        <v>3598</v>
+        <v>3531</v>
       </c>
       <c r="C1554" s="32" t="s">
-        <v>4702</v>
+        <v>4697</v>
       </c>
       <c r="E1554" s="23">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="G1554" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1554" s="24">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="J1554" s="13" t="s">
         <v>2243</v>
@@ -75005,22 +75058,22 @@
     </row>
     <row r="1555" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1555" s="19" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="B1555" s="32" t="s">
-        <v>3599</v>
+        <v>3532</v>
       </c>
       <c r="C1555" s="32" t="s">
-        <v>4703</v>
+        <v>4698</v>
       </c>
       <c r="E1555" s="23">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="G1555" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1555" s="24">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="J1555" s="13" t="s">
         <v>2243</v>
@@ -75031,22 +75084,22 @@
     </row>
     <row r="1556" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1556" s="19" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="B1556" s="32" t="s">
-        <v>3600</v>
+        <v>3595</v>
       </c>
       <c r="C1556" s="32" t="s">
-        <v>4704</v>
+        <v>4699</v>
       </c>
       <c r="E1556" s="23">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G1556" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1556" s="24">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="J1556" s="13" t="s">
         <v>2243</v>
@@ -75057,22 +75110,22 @@
     </row>
     <row r="1557" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1557" s="19" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="B1557" s="32" t="s">
-        <v>3533</v>
+        <v>3596</v>
       </c>
       <c r="C1557" s="32" t="s">
-        <v>4705</v>
+        <v>4700</v>
       </c>
       <c r="E1557" s="23">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G1557" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1557" s="24">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="J1557" s="13" t="s">
         <v>2243</v>
@@ -75083,22 +75136,22 @@
     </row>
     <row r="1558" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1558" s="19" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="B1558" s="32" t="s">
-        <v>3534</v>
+        <v>3597</v>
       </c>
       <c r="C1558" s="32" t="s">
-        <v>4706</v>
+        <v>4701</v>
       </c>
       <c r="E1558" s="23">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="G1558" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1558" s="24">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="J1558" s="13" t="s">
         <v>2243</v>
@@ -75109,22 +75162,22 @@
     </row>
     <row r="1559" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1559" s="19" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="B1559" s="32" t="s">
-        <v>3535</v>
+        <v>3598</v>
       </c>
       <c r="C1559" s="32" t="s">
-        <v>4707</v>
+        <v>4702</v>
       </c>
       <c r="E1559" s="23">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="G1559" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1559" s="24">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="J1559" s="13" t="s">
         <v>2243</v>
@@ -75135,22 +75188,22 @@
     </row>
     <row r="1560" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1560" s="19" t="s">
-        <v>1584</v>
+        <v>1566</v>
       </c>
       <c r="B1560" s="32" t="s">
-        <v>3536</v>
+        <v>3599</v>
       </c>
       <c r="C1560" s="32" t="s">
-        <v>4708</v>
+        <v>4703</v>
       </c>
       <c r="E1560" s="23">
-        <v>1405</v>
+        <v>1380</v>
       </c>
       <c r="G1560" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1560" s="24">
-        <v>1431</v>
+        <v>1403</v>
       </c>
       <c r="J1560" s="13" t="s">
         <v>2243</v>
@@ -75161,22 +75214,22 @@
     </row>
     <row r="1561" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1561" s="19" t="s">
-        <v>1585</v>
+        <v>1567</v>
       </c>
       <c r="B1561" s="32" t="s">
-        <v>3537</v>
+        <v>3600</v>
       </c>
       <c r="C1561" s="32" t="s">
-        <v>4709</v>
+        <v>4704</v>
       </c>
       <c r="E1561" s="23">
-        <v>1406</v>
+        <v>1381</v>
       </c>
       <c r="G1561" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1561" s="24">
-        <v>1432</v>
+        <v>1404</v>
       </c>
       <c r="J1561" s="13" t="s">
         <v>2243</v>
@@ -75187,22 +75240,22 @@
     </row>
     <row r="1562" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1562" s="19" t="s">
-        <v>1586</v>
+        <v>1568</v>
       </c>
       <c r="B1562" s="32" t="s">
-        <v>3538</v>
+        <v>3533</v>
       </c>
       <c r="C1562" s="32" t="s">
-        <v>4710</v>
+        <v>4705</v>
       </c>
       <c r="E1562" s="23">
-        <v>1407</v>
+        <v>1382</v>
       </c>
       <c r="G1562" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1562" s="24">
-        <v>1433</v>
+        <v>1405</v>
       </c>
       <c r="J1562" s="13" t="s">
         <v>2243</v>
@@ -75213,22 +75266,22 @@
     </row>
     <row r="1563" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1563" s="19" t="s">
-        <v>1587</v>
+        <v>1569</v>
       </c>
       <c r="B1563" s="32" t="s">
-        <v>3539</v>
+        <v>3534</v>
       </c>
       <c r="C1563" s="32" t="s">
-        <v>4711</v>
+        <v>4706</v>
       </c>
       <c r="E1563" s="23">
-        <v>1408</v>
+        <v>1383</v>
       </c>
       <c r="G1563" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1563" s="24">
-        <v>1434</v>
+        <v>1406</v>
       </c>
       <c r="J1563" s="13" t="s">
         <v>2243</v>
@@ -75239,305 +75292,230 @@
     </row>
     <row r="1564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1564" s="19" t="s">
-        <v>1550</v>
+        <v>1570</v>
       </c>
       <c r="B1564" s="32" t="s">
-        <v>3540</v>
+        <v>3535</v>
       </c>
       <c r="C1564" s="32" t="s">
-        <v>4712</v>
+        <v>4707</v>
       </c>
       <c r="E1564" s="23">
-        <v>1143</v>
+        <v>1384</v>
       </c>
       <c r="G1564" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1564" s="24">
-        <v>981</v>
+        <v>1407</v>
       </c>
       <c r="J1564" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1564" t="s">
-        <v>380</v>
-      </c>
-      <c r="L1564" s="29" t="s">
-        <v>3337</v>
-      </c>
-      <c r="M1564" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1564" t="s">
-        <v>1548</v>
-      </c>
       <c r="AB1564" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1565" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1565" s="19" t="s">
-        <v>1549</v>
+        <v>1571</v>
       </c>
       <c r="B1565" s="32" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C1565" s="32" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="E1565" s="23">
-        <v>981</v>
+        <v>1387</v>
       </c>
       <c r="G1565" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1565" s="24">
-        <v>991</v>
+        <v>1411</v>
       </c>
       <c r="J1565" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1565" t="s">
-        <v>1256</v>
-      </c>
-      <c r="L1565" s="29" t="s">
-        <v>3319</v>
-      </c>
-      <c r="M1565" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1565" t="s">
-        <v>1548</v>
-      </c>
       <c r="AB1565" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1566" s="19" t="s">
-        <v>1529</v>
+        <v>1572</v>
+      </c>
+      <c r="B1566" s="32" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C1566" s="32" t="s">
+        <v>4715</v>
       </c>
       <c r="E1566" s="23">
-        <v>426</v>
-      </c>
-      <c r="F1566" s="18" t="s">
-        <v>1622</v>
+        <v>1388</v>
       </c>
       <c r="G1566" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1566" s="24">
-        <v>1519</v>
+        <v>1412</v>
       </c>
       <c r="J1566" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1566" t="s">
-        <v>883</v>
-      </c>
-      <c r="L1566" s="29" t="s">
-        <v>2539</v>
-      </c>
-      <c r="M1566" t="s">
-        <v>419</v>
-      </c>
-      <c r="O1566" t="s">
-        <v>656</v>
-      </c>
       <c r="AB1566" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1567" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1567" s="19" t="s">
-        <v>1535</v>
+        <v>1573</v>
+      </c>
+      <c r="B1567" s="32" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C1567" s="32" t="s">
+        <v>4716</v>
       </c>
       <c r="E1567" s="23">
-        <v>683</v>
-      </c>
-      <c r="F1567" s="18" t="s">
-        <v>1622</v>
+        <v>1389</v>
       </c>
       <c r="G1567" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1567" s="24">
-        <v>1525</v>
+        <v>1413</v>
       </c>
       <c r="J1567" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1567" t="s">
-        <v>471</v>
-      </c>
-      <c r="L1567" s="29" t="s">
-        <v>2941</v>
-      </c>
-      <c r="M1567" t="s">
-        <v>419</v>
-      </c>
-      <c r="O1567" t="s">
-        <v>656</v>
-      </c>
       <c r="AB1567" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1568" s="19" t="s">
-        <v>1543</v>
+        <v>1574</v>
+      </c>
+      <c r="B1568" s="32" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C1568" s="32" t="s">
+        <v>4717</v>
       </c>
       <c r="E1568" s="23">
-        <v>1042</v>
-      </c>
-      <c r="F1568" s="18" t="s">
-        <v>1622</v>
+        <v>1390</v>
       </c>
       <c r="G1568" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1568" s="24">
-        <v>1533</v>
+        <v>1414</v>
       </c>
       <c r="J1568" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1568" t="s">
-        <v>387</v>
-      </c>
-      <c r="L1568" s="29" t="s">
-        <v>2943</v>
-      </c>
-      <c r="M1568" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1568" t="s">
-        <v>656</v>
-      </c>
       <c r="AB1568" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1569" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1569" s="19" t="s">
-        <v>1539</v>
+        <v>1575</v>
+      </c>
+      <c r="B1569" s="32" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C1569" s="32" t="s">
+        <v>4718</v>
       </c>
       <c r="E1569" s="23">
-        <v>876</v>
-      </c>
-      <c r="F1569" s="18" t="s">
-        <v>1622</v>
+        <v>1391</v>
       </c>
       <c r="G1569" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1569" s="24">
-        <v>1529</v>
+        <v>1415</v>
       </c>
       <c r="J1569" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1569" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L1569" s="29" t="s">
-        <v>2942</v>
-      </c>
-      <c r="M1569" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1569" t="s">
-        <v>656</v>
-      </c>
       <c r="AB1569" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1570" s="19" t="s">
-        <v>1527</v>
+        <v>1612</v>
+      </c>
+      <c r="B1570" s="32" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1570" s="32" t="s">
+        <v>4719</v>
       </c>
       <c r="E1570" s="23">
-        <v>359</v>
-      </c>
-      <c r="F1570" s="18" t="s">
-        <v>1622</v>
+        <v>1392</v>
       </c>
       <c r="G1570" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1570" s="24">
-        <v>1517</v>
+        <v>1416</v>
       </c>
       <c r="J1570" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1570" t="s">
-        <v>479</v>
-      </c>
-      <c r="L1570" s="29" t="s">
-        <v>2476</v>
-      </c>
-      <c r="M1570" t="s">
-        <v>675</v>
-      </c>
       <c r="AB1570" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1571" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1571" s="19" t="s">
-        <v>1533</v>
+        <v>1576</v>
+      </c>
+      <c r="B1571" s="32" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C1571" s="32" t="s">
+        <v>4747</v>
       </c>
       <c r="E1571" s="23">
-        <v>616</v>
-      </c>
-      <c r="F1571" s="18" t="s">
-        <v>1622</v>
+        <v>1396</v>
       </c>
       <c r="G1571" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1571" s="24">
-        <v>1523</v>
+        <v>1421</v>
       </c>
       <c r="J1571" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1571" t="s">
-        <v>349</v>
-      </c>
-      <c r="L1571" s="29" t="s">
-        <v>3007</v>
-      </c>
-      <c r="M1571" t="s">
-        <v>675</v>
-      </c>
       <c r="AB1571" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1572" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1572" s="19" t="s">
-        <v>1111</v>
+        <v>1577</v>
       </c>
       <c r="B1572" s="32" t="s">
-        <v>3542</v>
+        <v>3578</v>
       </c>
       <c r="C1572" s="32" t="s">
-        <v>5024</v>
+        <v>4748</v>
       </c>
       <c r="E1572" s="23">
-        <v>547</v>
-      </c>
-      <c r="F1572" s="18" t="s">
-        <v>1622</v>
+        <v>1397</v>
       </c>
       <c r="G1572" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1572" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1572" s="24">
+        <v>1422</v>
       </c>
       <c r="J1572" s="13" t="s">
         <v>2243</v>
@@ -75548,25 +75526,22 @@
     </row>
     <row r="1573" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1573" s="19" t="s">
-        <v>900</v>
+        <v>1578</v>
       </c>
       <c r="B1573" s="32" t="s">
-        <v>3543</v>
+        <v>3579</v>
       </c>
       <c r="C1573" s="32" t="s">
-        <v>5025</v>
+        <v>4749</v>
       </c>
       <c r="E1573" s="23">
-        <v>802</v>
-      </c>
-      <c r="F1573" s="18" t="s">
-        <v>1622</v>
+        <v>1398</v>
       </c>
       <c r="G1573" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1573" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1573" s="24">
+        <v>1423</v>
       </c>
       <c r="J1573" s="13" t="s">
         <v>2243</v>
@@ -75577,577 +75552,470 @@
     </row>
     <row r="1574" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1574" s="19" t="s">
-        <v>1117</v>
+        <v>1579</v>
+      </c>
+      <c r="B1574" s="32" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C1574" s="32" t="s">
+        <v>4750</v>
       </c>
       <c r="E1574" s="23">
-        <v>553</v>
-      </c>
-      <c r="F1574" s="18" t="s">
-        <v>1622</v>
+        <v>1399</v>
       </c>
       <c r="G1574" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1574" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1574" s="24">
+        <v>1424</v>
       </c>
       <c r="J1574" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1574" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1574" s="29" t="s">
-        <v>3542</v>
-      </c>
-      <c r="Q1574" t="s">
-        <v>422</v>
-      </c>
       <c r="AB1574" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1575" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1575" s="19" t="s">
-        <v>1110</v>
+        <v>1580</v>
+      </c>
+      <c r="B1575" s="32" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C1575" s="32" t="s">
+        <v>4751</v>
       </c>
       <c r="E1575" s="23">
-        <v>808</v>
-      </c>
-      <c r="F1575" s="18" t="s">
-        <v>1622</v>
+        <v>1400</v>
       </c>
       <c r="G1575" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1575" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1575" s="24">
+        <v>1425</v>
       </c>
       <c r="J1575" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1575" t="s">
-        <v>498</v>
-      </c>
-      <c r="L1575" s="29" t="s">
-        <v>3543</v>
-      </c>
-      <c r="Q1575" t="s">
-        <v>422</v>
-      </c>
       <c r="AB1575" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1576" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1576" s="19" t="s">
-        <v>1113</v>
+        <v>1581</v>
+      </c>
+      <c r="B1576" s="32" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C1576" s="32" t="s">
+        <v>4752</v>
       </c>
       <c r="E1576" s="23">
-        <v>549</v>
-      </c>
-      <c r="F1576" s="18" t="s">
-        <v>1622</v>
+        <v>1401</v>
       </c>
       <c r="G1576" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1576" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1576" s="24">
+        <v>1426</v>
       </c>
       <c r="J1576" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1576" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1576" s="29" t="s">
-        <v>3542</v>
-      </c>
-      <c r="M1576" t="s">
-        <v>656</v>
-      </c>
       <c r="AB1576" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1577" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1577" s="19" t="s">
-        <v>1106</v>
+        <v>1582</v>
+      </c>
+      <c r="B1577" s="32" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C1577" s="32" t="s">
+        <v>4753</v>
       </c>
       <c r="E1577" s="23">
-        <v>804</v>
-      </c>
-      <c r="F1577" s="18" t="s">
-        <v>1622</v>
+        <v>1402</v>
       </c>
       <c r="G1577" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1577" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1577" s="24">
+        <v>1427</v>
       </c>
       <c r="J1577" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1577" t="s">
-        <v>498</v>
-      </c>
-      <c r="L1577" s="29" t="s">
-        <v>3543</v>
-      </c>
-      <c r="M1577" t="s">
-        <v>656</v>
-      </c>
       <c r="AB1577" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1578" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1578" s="19" t="s">
-        <v>1531</v>
+        <v>1583</v>
+      </c>
+      <c r="B1578" s="32" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C1578" s="32" t="s">
+        <v>4754</v>
       </c>
       <c r="E1578" s="23">
-        <v>512</v>
-      </c>
-      <c r="F1578" s="18" t="s">
-        <v>1622</v>
+        <v>1403</v>
       </c>
       <c r="G1578" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1578" s="24">
-        <v>1521</v>
+        <v>1428</v>
       </c>
       <c r="J1578" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1578" t="s">
-        <v>452</v>
-      </c>
-      <c r="L1578" s="29" t="s">
-        <v>2624</v>
-      </c>
-      <c r="M1578" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1578" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1579" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1579" s="19" t="s">
-        <v>1116</v>
+        <v>1584</v>
+      </c>
+      <c r="B1579" s="32" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C1579" s="32" t="s">
+        <v>4708</v>
       </c>
       <c r="E1579" s="23">
-        <v>552</v>
-      </c>
-      <c r="F1579" s="18" t="s">
-        <v>1622</v>
+        <v>1405</v>
       </c>
       <c r="G1579" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1579" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1579" s="24">
+        <v>1431</v>
       </c>
       <c r="J1579" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1579" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1579" s="29" t="s">
-        <v>3542</v>
-      </c>
-      <c r="M1579" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1579" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1580" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1580" s="19" t="s">
-        <v>1109</v>
+        <v>1585</v>
+      </c>
+      <c r="B1580" s="32" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C1580" s="32" t="s">
+        <v>4709</v>
       </c>
       <c r="E1580" s="23">
-        <v>807</v>
-      </c>
-      <c r="F1580" s="18" t="s">
-        <v>1622</v>
+        <v>1406</v>
       </c>
       <c r="G1580" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1580" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1580" s="24">
+        <v>1432</v>
       </c>
       <c r="J1580" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1580" t="s">
-        <v>498</v>
-      </c>
-      <c r="L1580" s="29" t="s">
-        <v>3543</v>
-      </c>
-      <c r="M1580" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1580" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1581" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1581" s="19" t="s">
-        <v>1537</v>
+        <v>1586</v>
+      </c>
+      <c r="B1581" s="32" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C1581" s="32" t="s">
+        <v>4710</v>
       </c>
       <c r="E1581" s="23">
-        <v>769</v>
-      </c>
-      <c r="F1581" s="18" t="s">
-        <v>1622</v>
+        <v>1407</v>
       </c>
       <c r="G1581" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1581" s="24">
-        <v>1527</v>
+        <v>1433</v>
       </c>
       <c r="J1581" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1581" t="s">
-        <v>1104</v>
-      </c>
-      <c r="L1581" s="29" t="s">
-        <v>3232</v>
-      </c>
-      <c r="M1581" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1581" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1582" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1582" s="19" t="s">
-        <v>1545</v>
+        <v>1587</v>
+      </c>
+      <c r="B1582" s="32" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C1582" s="32" t="s">
+        <v>4711</v>
       </c>
       <c r="E1582" s="23">
-        <v>1122</v>
-      </c>
-      <c r="F1582" s="18" t="s">
-        <v>1622</v>
+        <v>1408</v>
       </c>
       <c r="G1582" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1582" s="24">
-        <v>1535</v>
+        <v>1434</v>
       </c>
       <c r="J1582" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1582" t="s">
-        <v>1262</v>
-      </c>
-      <c r="L1582" s="29" t="s">
-        <v>3234</v>
-      </c>
-      <c r="M1582" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1582" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1583" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1583" s="19" t="s">
-        <v>1546</v>
+        <v>1588</v>
+      </c>
+      <c r="B1583" s="32" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C1583" s="32" t="s">
+        <v>4728</v>
       </c>
       <c r="E1583" s="23">
-        <v>1470</v>
-      </c>
-      <c r="F1583" s="18" t="s">
-        <v>1622</v>
+        <v>1412</v>
       </c>
       <c r="G1583" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1583" s="24">
-        <v>1536</v>
+        <v>1439</v>
       </c>
       <c r="J1583" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1583" t="s">
-        <v>1118</v>
-      </c>
-      <c r="L1583" s="29" t="s">
-        <v>3236</v>
-      </c>
-      <c r="M1583" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1583" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1584" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1584" s="19" t="s">
-        <v>1541</v>
+        <v>1589</v>
+      </c>
+      <c r="B1584" s="32" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C1584" s="32" t="s">
+        <v>4729</v>
       </c>
       <c r="E1584" s="23">
-        <v>959</v>
-      </c>
-      <c r="F1584" s="18" t="s">
-        <v>1622</v>
+        <v>1413</v>
       </c>
       <c r="G1584" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1584" s="24">
-        <v>1531</v>
+        <v>1440</v>
       </c>
       <c r="J1584" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1584" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L1584" s="29" t="s">
-        <v>3233</v>
-      </c>
-      <c r="M1584" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1584" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1585" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1585" s="19" t="s">
-        <v>1547</v>
+        <v>1590</v>
+      </c>
+      <c r="B1585" s="32" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C1585" s="32" t="s">
+        <v>4730</v>
       </c>
       <c r="E1585" s="23">
-        <v>1492</v>
-      </c>
-      <c r="F1585" s="18" t="s">
-        <v>1622</v>
+        <v>1414</v>
       </c>
       <c r="G1585" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H1585" s="24">
-        <v>1537</v>
+        <v>1441</v>
       </c>
       <c r="J1585" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1585" t="s">
-        <v>997</v>
-      </c>
-      <c r="L1585" s="29" t="s">
-        <v>3235</v>
-      </c>
-      <c r="M1585" t="s">
-        <v>419</v>
-      </c>
       <c r="AB1585" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1586" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1586" s="19" t="s">
-        <v>1112</v>
+        <v>1591</v>
+      </c>
+      <c r="B1586" s="32" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C1586" s="32" t="s">
+        <v>4731</v>
       </c>
       <c r="E1586" s="23">
-        <v>548</v>
-      </c>
-      <c r="F1586" s="18" t="s">
-        <v>1622</v>
+        <v>1415</v>
       </c>
       <c r="G1586" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1586" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1586" s="24">
+        <v>1442</v>
       </c>
       <c r="J1586" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1586" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1586" s="29" t="s">
-        <v>3542</v>
-      </c>
-      <c r="M1586" t="s">
-        <v>416</v>
-      </c>
       <c r="AB1586" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1587" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1587" s="19" t="s">
-        <v>901</v>
+        <v>1592</v>
+      </c>
+      <c r="B1587" s="32" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C1587" s="32" t="s">
+        <v>4732</v>
       </c>
       <c r="E1587" s="23">
-        <v>803</v>
-      </c>
-      <c r="F1587" s="18" t="s">
-        <v>1622</v>
+        <v>1416</v>
       </c>
       <c r="G1587" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1587" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1587" s="24">
+        <v>1443</v>
       </c>
       <c r="J1587" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1587" t="s">
-        <v>498</v>
-      </c>
-      <c r="L1587" s="29" t="s">
-        <v>3543</v>
-      </c>
-      <c r="M1587" t="s">
-        <v>416</v>
-      </c>
       <c r="AB1587" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1588" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1588" s="19" t="s">
-        <v>1114</v>
+        <v>1593</v>
+      </c>
+      <c r="B1588" s="32" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C1588" s="32" t="s">
+        <v>4733</v>
       </c>
       <c r="E1588" s="23">
-        <v>550</v>
-      </c>
-      <c r="F1588" s="18" t="s">
-        <v>1622</v>
+        <v>1417</v>
       </c>
       <c r="G1588" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1588" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1588" s="24">
+        <v>1444</v>
       </c>
       <c r="J1588" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1588" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1588" s="29" t="s">
-        <v>3542</v>
-      </c>
-      <c r="M1588" t="s">
-        <v>674</v>
-      </c>
       <c r="AB1588" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1589" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1589" s="19" t="s">
-        <v>1107</v>
+        <v>1594</v>
+      </c>
+      <c r="B1589" s="32" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1589" s="32" t="s">
+        <v>4734</v>
       </c>
       <c r="E1589" s="23">
-        <v>805</v>
-      </c>
-      <c r="F1589" s="18" t="s">
-        <v>1622</v>
+        <v>1418</v>
       </c>
       <c r="G1589" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1589" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1589" s="24">
+        <v>1445</v>
       </c>
       <c r="J1589" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1589" t="s">
-        <v>498</v>
-      </c>
-      <c r="L1589" s="29" t="s">
-        <v>3543</v>
-      </c>
-      <c r="M1589" t="s">
-        <v>674</v>
-      </c>
       <c r="AB1589" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1590" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1590" s="19" t="s">
-        <v>1115</v>
+        <v>1595</v>
+      </c>
+      <c r="B1590" s="32" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C1590" s="32" t="s">
+        <v>4735</v>
       </c>
       <c r="E1590" s="23">
-        <v>551</v>
-      </c>
-      <c r="F1590" s="18" t="s">
-        <v>1622</v>
+        <v>1419</v>
       </c>
       <c r="G1590" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1590" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1590" s="24">
+        <v>1446</v>
       </c>
       <c r="J1590" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1590" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1590" s="29" t="s">
-        <v>3542</v>
-      </c>
-      <c r="M1590" s="4"/>
-      <c r="N1590" t="s">
-        <v>673</v>
-      </c>
       <c r="AB1590" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1591" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1591" s="19" t="s">
-        <v>1108</v>
+        <v>1596</v>
+      </c>
+      <c r="B1591" s="32" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1591" s="32" t="s">
+        <v>4738</v>
       </c>
       <c r="E1591" s="23">
-        <v>806</v>
-      </c>
-      <c r="F1591" s="18" t="s">
-        <v>1622</v>
+        <v>1423</v>
       </c>
       <c r="G1591" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="H1591" s="24" t="e">
-        <v>#VALUE!</v>
+        <v>810</v>
+      </c>
+      <c r="H1591" s="24">
+        <v>1451</v>
       </c>
       <c r="J1591" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1591" t="s">
-        <v>498</v>
-      </c>
-      <c r="L1591" s="29" t="s">
-        <v>3543</v>
-      </c>
-      <c r="M1591" s="4"/>
-      <c r="N1591" t="s">
-        <v>673</v>
+      <c r="T1591" s="7">
+        <v>6.1</v>
       </c>
       <c r="AB1591" t="s">
         <v>2796</v>
@@ -76155,184 +76023,202 @@
     </row>
     <row r="1592" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1592" s="19" t="s">
-        <v>1571</v>
+        <v>1597</v>
       </c>
       <c r="B1592" s="32" t="s">
-        <v>3544</v>
+        <v>3569</v>
       </c>
       <c r="C1592" s="32" t="s">
-        <v>4714</v>
+        <v>4739</v>
       </c>
       <c r="E1592" s="23">
-        <v>1387</v>
+        <v>1424</v>
       </c>
       <c r="G1592" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1592" s="24">
-        <v>1411</v>
+        <v>1452</v>
       </c>
       <c r="J1592" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1592" s="7">
+        <v>6.1</v>
+      </c>
       <c r="AB1592" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1593" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1593" s="19" t="s">
-        <v>1572</v>
+        <v>1598</v>
       </c>
       <c r="B1593" s="32" t="s">
-        <v>3545</v>
+        <v>3570</v>
       </c>
       <c r="C1593" s="32" t="s">
-        <v>4715</v>
+        <v>4740</v>
       </c>
       <c r="E1593" s="23">
-        <v>1388</v>
+        <v>1425</v>
       </c>
       <c r="G1593" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1593" s="24">
-        <v>1412</v>
+        <v>1453</v>
       </c>
       <c r="J1593" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1593" s="7">
+        <v>6.1</v>
+      </c>
       <c r="AB1593" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1594" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1594" s="19" t="s">
-        <v>1573</v>
+        <v>1599</v>
       </c>
       <c r="B1594" s="32" t="s">
-        <v>3546</v>
+        <v>3571</v>
       </c>
       <c r="C1594" s="32" t="s">
-        <v>4716</v>
+        <v>4741</v>
       </c>
       <c r="E1594" s="23">
-        <v>1389</v>
+        <v>1426</v>
       </c>
       <c r="G1594" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1594" s="24">
-        <v>1413</v>
+        <v>1454</v>
       </c>
       <c r="J1594" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1594" s="7">
+        <v>6.1</v>
+      </c>
       <c r="AB1594" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1595" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1595" s="19" t="s">
-        <v>1574</v>
+        <v>1600</v>
       </c>
       <c r="B1595" s="32" t="s">
-        <v>3547</v>
+        <v>3572</v>
       </c>
       <c r="C1595" s="32" t="s">
-        <v>4717</v>
+        <v>4742</v>
       </c>
       <c r="E1595" s="23">
-        <v>1390</v>
+        <v>1427</v>
       </c>
       <c r="G1595" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1595" s="24">
-        <v>1414</v>
+        <v>1455</v>
       </c>
       <c r="J1595" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1595" s="7">
+        <v>6.1</v>
+      </c>
       <c r="AB1595" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1596" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1596" s="19" t="s">
-        <v>1575</v>
+        <v>1601</v>
       </c>
       <c r="B1596" s="32" t="s">
-        <v>3548</v>
+        <v>3573</v>
       </c>
       <c r="C1596" s="32" t="s">
-        <v>4718</v>
+        <v>4743</v>
       </c>
       <c r="E1596" s="23">
-        <v>1391</v>
+        <v>1428</v>
       </c>
       <c r="G1596" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1596" s="24">
-        <v>1415</v>
+        <v>1456</v>
       </c>
       <c r="J1596" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1596" s="7">
+        <v>6.1</v>
+      </c>
       <c r="AB1596" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1597" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1597" s="19" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="B1597" s="32" t="s">
-        <v>3549</v>
+        <v>3574</v>
       </c>
       <c r="C1597" s="32" t="s">
-        <v>4719</v>
+        <v>4744</v>
       </c>
       <c r="E1597" s="23">
-        <v>1392</v>
+        <v>1429</v>
       </c>
       <c r="G1597" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1597" s="24">
-        <v>1416</v>
+        <v>1457</v>
       </c>
       <c r="J1597" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1597" s="7">
+        <v>6.1</v>
+      </c>
       <c r="AB1597" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1598" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1598" s="19" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B1598" s="32" t="s">
-        <v>3550</v>
+        <v>3575</v>
       </c>
       <c r="C1598" s="32" t="s">
-        <v>4720</v>
+        <v>4745</v>
       </c>
       <c r="E1598" s="23">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G1598" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1598" s="24">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="J1598" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="T1598" s="7">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AB1598" t="s">
         <v>2796</v>
@@ -76340,22 +76226,22 @@
     </row>
     <row r="1599" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1599" s="19" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B1599" s="32" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="C1599" s="32" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="E1599" s="23">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G1599" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1599" s="24">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="J1599" s="13" t="s">
         <v>2243</v>
@@ -76369,22 +76255,22 @@
     </row>
     <row r="1600" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1600" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B1600" s="32" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="C1600" s="32" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="E1600" s="23">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G1600" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1600" s="24">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="J1600" s="13" t="s">
         <v>2243</v>
@@ -76398,22 +76284,22 @@
     </row>
     <row r="1601" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1601" s="19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1601" s="32" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="C1601" s="32" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="E1601" s="23">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G1601" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1601" s="24">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J1601" s="13" t="s">
         <v>2243</v>
@@ -76427,22 +76313,22 @@
     </row>
     <row r="1602" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1602" s="19" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1602" s="32" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="C1602" s="32" t="s">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="E1602" s="23">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G1602" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1602" s="24">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="J1602" s="13" t="s">
         <v>2243</v>
@@ -76456,22 +76342,22 @@
     </row>
     <row r="1603" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1603" s="19" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1603" s="32" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="C1603" s="32" t="s">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="E1603" s="23">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G1603" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1603" s="24">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J1603" s="13" t="s">
         <v>2243</v>
@@ -76485,22 +76371,22 @@
     </row>
     <row r="1604" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1604" s="19" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B1604" s="32" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="C1604" s="32" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="E1604" s="23">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G1604" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1604" s="24">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="J1604" s="13" t="s">
         <v>2243</v>
@@ -76514,22 +76400,22 @@
     </row>
     <row r="1605" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1605" s="19" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B1605" s="32" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="C1605" s="32" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="E1605" s="23">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G1605" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1605" s="24">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="J1605" s="13" t="s">
         <v>2243</v>
@@ -76543,240 +76429,290 @@
     </row>
     <row r="1606" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1606" s="19" t="s">
-        <v>1588</v>
+        <v>1611</v>
       </c>
       <c r="B1606" s="32" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="C1606" s="32" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
       <c r="E1606" s="23">
-        <v>1412</v>
+        <v>1441</v>
       </c>
       <c r="G1606" s="24" t="s">
         <v>810</v>
       </c>
       <c r="H1606" s="24">
-        <v>1439</v>
+        <v>1470</v>
       </c>
       <c r="J1606" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="T1606" s="7">
+        <v>7</v>
+      </c>
       <c r="AB1606" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1607" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1607" s="19" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B1607" s="32" t="s">
-        <v>3559</v>
-      </c>
-      <c r="C1607" s="32" t="s">
-        <v>4729</v>
+        <v>1526</v>
       </c>
       <c r="E1607" s="23">
-        <v>1413</v>
+        <v>312</v>
+      </c>
+      <c r="F1607" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1607" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1607" s="24">
-        <v>1440</v>
+        <v>1516</v>
       </c>
       <c r="J1607" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1607" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1607" s="29" t="s">
+        <v>2446</v>
+      </c>
+      <c r="N1607" t="s">
+        <v>656</v>
+      </c>
       <c r="AB1607" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1608" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1608" s="19" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B1608" s="32" t="s">
-        <v>3560</v>
-      </c>
-      <c r="C1608" s="32" t="s">
-        <v>4730</v>
+        <v>1527</v>
       </c>
       <c r="E1608" s="23">
-        <v>1414</v>
+        <v>359</v>
+      </c>
+      <c r="F1608" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1608" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1608" s="24">
-        <v>1441</v>
+        <v>1517</v>
       </c>
       <c r="J1608" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1608" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1608" s="29" t="s">
+        <v>2476</v>
+      </c>
+      <c r="M1608" t="s">
+        <v>675</v>
+      </c>
       <c r="AB1608" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1609" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1609" s="19" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B1609" s="32" t="s">
-        <v>3561</v>
-      </c>
-      <c r="C1609" s="32" t="s">
-        <v>4731</v>
+        <v>1528</v>
       </c>
       <c r="E1609" s="23">
-        <v>1415</v>
+        <v>423</v>
+      </c>
+      <c r="F1609" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1609" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1609" s="24">
-        <v>1442</v>
+        <v>1518</v>
       </c>
       <c r="J1609" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1609" t="s">
+        <v>883</v>
+      </c>
+      <c r="L1609" s="29" t="s">
+        <v>2539</v>
+      </c>
+      <c r="M1609" t="s">
+        <v>419</v>
+      </c>
+      <c r="O1609" t="s">
+        <v>673</v>
+      </c>
       <c r="AB1609" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1610" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1610" s="19" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B1610" s="32" t="s">
-        <v>3562</v>
-      </c>
-      <c r="C1610" s="32" t="s">
-        <v>4732</v>
+        <v>1529</v>
       </c>
       <c r="E1610" s="23">
-        <v>1416</v>
+        <v>426</v>
+      </c>
+      <c r="F1610" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1610" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1610" s="24">
-        <v>1443</v>
+        <v>1519</v>
       </c>
       <c r="J1610" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1610" t="s">
+        <v>883</v>
+      </c>
+      <c r="L1610" s="29" t="s">
+        <v>2539</v>
+      </c>
+      <c r="M1610" t="s">
+        <v>419</v>
+      </c>
+      <c r="O1610" t="s">
+        <v>656</v>
+      </c>
       <c r="AB1610" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1611" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1611" s="19" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B1611" s="32" t="s">
-        <v>3563</v>
-      </c>
-      <c r="C1611" s="32" t="s">
-        <v>4733</v>
+        <v>1530</v>
       </c>
       <c r="E1611" s="23">
-        <v>1417</v>
+        <v>438</v>
+      </c>
+      <c r="F1611" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1611" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1611" s="24">
-        <v>1444</v>
+        <v>1520</v>
       </c>
       <c r="J1611" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1611" t="s">
+        <v>798</v>
+      </c>
+      <c r="L1611" s="29" t="s">
+        <v>2556</v>
+      </c>
+      <c r="M1611" t="s">
+        <v>675</v>
+      </c>
       <c r="AB1611" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1612" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1612" s="19" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B1612" s="32" t="s">
-        <v>3564</v>
-      </c>
-      <c r="C1612" s="32" t="s">
-        <v>4734</v>
+        <v>1531</v>
       </c>
       <c r="E1612" s="23">
-        <v>1418</v>
+        <v>512</v>
+      </c>
+      <c r="F1612" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1612" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1612" s="24">
-        <v>1445</v>
+        <v>1521</v>
       </c>
       <c r="J1612" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1612" t="s">
+        <v>452</v>
+      </c>
+      <c r="L1612" s="29" t="s">
+        <v>2624</v>
+      </c>
+      <c r="M1612" t="s">
+        <v>419</v>
+      </c>
       <c r="AB1612" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1613" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1613" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B1613" s="32" t="s">
-        <v>3565</v>
-      </c>
-      <c r="C1613" s="32" t="s">
-        <v>4735</v>
+        <v>1532</v>
       </c>
       <c r="E1613" s="23">
-        <v>1419</v>
+        <v>584</v>
+      </c>
+      <c r="F1613" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1613" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1613" s="24">
-        <v>1446</v>
+        <v>1522</v>
       </c>
       <c r="J1613" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1613" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L1613" s="29" t="s">
+        <v>3344</v>
+      </c>
+      <c r="N1613" t="s">
+        <v>656</v>
+      </c>
       <c r="AB1613" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1614" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1614" s="19" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B1614" s="32" t="s">
-        <v>3566</v>
-      </c>
-      <c r="C1614" s="32" t="s">
-        <v>4736</v>
+        <v>1533</v>
       </c>
       <c r="E1614" s="23">
-        <v>1089</v>
-      </c>
-      <c r="F1614" s="25"/>
+        <v>616</v>
+      </c>
+      <c r="F1614" s="18" t="s">
+        <v>1622</v>
+      </c>
       <c r="G1614" s="24" t="s">
         <v>805</v>
       </c>
       <c r="H1614" s="24">
-        <v>768</v>
+        <v>1523</v>
       </c>
       <c r="J1614" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1614" s="7" t="s">
-        <v>1334</v>
-      </c>
-      <c r="U1614" t="s">
-        <v>1387</v>
+      <c r="K1614" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1614" s="29" t="s">
+        <v>3007</v>
+      </c>
+      <c r="M1614" t="s">
+        <v>675</v>
       </c>
       <c r="AB1614" t="s">
         <v>2796</v>
@@ -76784,41 +76720,34 @@
     </row>
     <row r="1615" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1615" s="19" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B1615" s="32" t="s">
-        <v>3567</v>
-      </c>
-      <c r="C1615" s="32" t="s">
-        <v>4737</v>
+        <v>1534</v>
       </c>
       <c r="E1615" s="23">
-        <v>926</v>
-      </c>
-      <c r="F1615" s="25"/>
+        <v>680</v>
+      </c>
+      <c r="F1615" s="18" t="s">
+        <v>1622</v>
+      </c>
       <c r="G1615" s="24" t="s">
         <v>805</v>
       </c>
       <c r="H1615" s="24">
-        <v>787</v>
+        <v>1524</v>
       </c>
       <c r="J1615" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1615" t="s">
-        <v>95</v>
+        <v>471</v>
       </c>
       <c r="L1615" s="29" t="s">
-        <v>3125</v>
-      </c>
-      <c r="N1615" t="s">
-        <v>659</v>
-      </c>
-      <c r="T1615" s="7" t="s">
-        <v>1334</v>
-      </c>
-      <c r="U1615" t="s">
-        <v>1386</v>
+        <v>2941</v>
+      </c>
+      <c r="M1615" t="s">
+        <v>419</v>
+      </c>
+      <c r="O1615" t="s">
+        <v>673</v>
       </c>
       <c r="AB1615" t="s">
         <v>2796</v>
@@ -76826,28 +76755,34 @@
     </row>
     <row r="1616" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1616" s="19" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B1616" s="32" t="s">
-        <v>3568</v>
-      </c>
-      <c r="C1616" s="32" t="s">
-        <v>4738</v>
+        <v>1535</v>
       </c>
       <c r="E1616" s="23">
-        <v>1423</v>
+        <v>683</v>
+      </c>
+      <c r="F1616" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1616" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1616" s="24">
-        <v>1451</v>
+        <v>1525</v>
       </c>
       <c r="J1616" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1616" s="7">
-        <v>6.1</v>
+      <c r="K1616" t="s">
+        <v>471</v>
+      </c>
+      <c r="L1616" s="29" t="s">
+        <v>2941</v>
+      </c>
+      <c r="M1616" t="s">
+        <v>419</v>
+      </c>
+      <c r="O1616" t="s">
+        <v>656</v>
       </c>
       <c r="AB1616" t="s">
         <v>2796</v>
@@ -76855,28 +76790,31 @@
     </row>
     <row r="1617" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1617" s="19" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B1617" s="32" t="s">
-        <v>3569</v>
-      </c>
-      <c r="C1617" s="32" t="s">
-        <v>4739</v>
+        <v>1536</v>
       </c>
       <c r="E1617" s="23">
-        <v>1424</v>
+        <v>695</v>
+      </c>
+      <c r="F1617" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1617" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1617" s="24">
-        <v>1452</v>
+        <v>1526</v>
       </c>
       <c r="J1617" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1617" s="7">
-        <v>6.1</v>
+      <c r="K1617" t="s">
+        <v>906</v>
+      </c>
+      <c r="L1617" s="29" t="s">
+        <v>3025</v>
+      </c>
+      <c r="M1617" t="s">
+        <v>675</v>
       </c>
       <c r="AB1617" t="s">
         <v>2796</v>
@@ -76884,28 +76822,31 @@
     </row>
     <row r="1618" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1618" s="19" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B1618" s="32" t="s">
-        <v>3570</v>
-      </c>
-      <c r="C1618" s="32" t="s">
-        <v>4740</v>
+        <v>1537</v>
       </c>
       <c r="E1618" s="23">
-        <v>1425</v>
+        <v>769</v>
+      </c>
+      <c r="F1618" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1618" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1618" s="24">
-        <v>1453</v>
+        <v>1527</v>
       </c>
       <c r="J1618" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1618" s="7">
-        <v>6.1</v>
+      <c r="K1618" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L1618" s="29" t="s">
+        <v>3232</v>
+      </c>
+      <c r="M1618" t="s">
+        <v>419</v>
       </c>
       <c r="AB1618" t="s">
         <v>2796</v>
@@ -76913,28 +76854,34 @@
     </row>
     <row r="1619" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1619" s="19" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B1619" s="32" t="s">
-        <v>3571</v>
-      </c>
-      <c r="C1619" s="32" t="s">
-        <v>4741</v>
+        <v>1538</v>
       </c>
       <c r="E1619" s="23">
-        <v>1426</v>
+        <v>873</v>
+      </c>
+      <c r="F1619" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1619" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1619" s="24">
-        <v>1454</v>
+        <v>1528</v>
       </c>
       <c r="J1619" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1619" s="7">
-        <v>6.1</v>
+      <c r="K1619" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L1619" s="29" t="s">
+        <v>2942</v>
+      </c>
+      <c r="M1619" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1619" t="s">
+        <v>673</v>
       </c>
       <c r="AB1619" t="s">
         <v>2796</v>
@@ -76942,28 +76889,34 @@
     </row>
     <row r="1620" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1620" s="19" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B1620" s="32" t="s">
-        <v>3572</v>
-      </c>
-      <c r="C1620" s="32" t="s">
-        <v>4742</v>
+        <v>1539</v>
       </c>
       <c r="E1620" s="23">
-        <v>1427</v>
+        <v>876</v>
+      </c>
+      <c r="F1620" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1620" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1620" s="24">
-        <v>1455</v>
+        <v>1529</v>
       </c>
       <c r="J1620" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1620" s="7">
-        <v>6.1</v>
+      <c r="K1620" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L1620" s="29" t="s">
+        <v>2942</v>
+      </c>
+      <c r="M1620" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1620" t="s">
+        <v>656</v>
       </c>
       <c r="AB1620" t="s">
         <v>2796</v>
@@ -76971,28 +76924,31 @@
     </row>
     <row r="1621" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1621" s="19" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B1621" s="32" t="s">
-        <v>3573</v>
-      </c>
-      <c r="C1621" s="32" t="s">
-        <v>4743</v>
+        <v>1540</v>
       </c>
       <c r="E1621" s="23">
-        <v>1428</v>
+        <v>891</v>
+      </c>
+      <c r="F1621" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1621" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1621" s="24">
-        <v>1456</v>
+        <v>1530</v>
       </c>
       <c r="J1621" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1621" s="7">
-        <v>6.1</v>
+      <c r="K1621" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1621" s="29" t="s">
+        <v>3026</v>
+      </c>
+      <c r="M1621" t="s">
+        <v>675</v>
       </c>
       <c r="AB1621" t="s">
         <v>2796</v>
@@ -77000,28 +76956,31 @@
     </row>
     <row r="1622" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1622" s="19" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B1622" s="32" t="s">
-        <v>3574</v>
-      </c>
-      <c r="C1622" s="32" t="s">
-        <v>4744</v>
+        <v>1541</v>
       </c>
       <c r="E1622" s="23">
-        <v>1429</v>
+        <v>959</v>
+      </c>
+      <c r="F1622" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1622" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1622" s="24">
-        <v>1457</v>
+        <v>1531</v>
       </c>
       <c r="J1622" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1622" s="7">
-        <v>6.1</v>
+      <c r="K1622" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L1622" s="29" t="s">
+        <v>3233</v>
+      </c>
+      <c r="M1622" t="s">
+        <v>419</v>
       </c>
       <c r="AB1622" t="s">
         <v>2796</v>
@@ -77029,28 +76988,34 @@
     </row>
     <row r="1623" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1623" s="19" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B1623" s="32" t="s">
-        <v>3575</v>
-      </c>
-      <c r="C1623" s="32" t="s">
-        <v>4745</v>
+        <v>1542</v>
       </c>
       <c r="E1623" s="23">
-        <v>1430</v>
+        <v>1039</v>
+      </c>
+      <c r="F1623" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1623" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H1623" s="24">
-        <v>1458</v>
+        <v>1532</v>
       </c>
       <c r="J1623" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="T1623" s="7">
-        <v>6.1</v>
+      <c r="K1623" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1623" s="29" t="s">
+        <v>2943</v>
+      </c>
+      <c r="M1623" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1623" t="s">
+        <v>673</v>
       </c>
       <c r="AB1623" t="s">
         <v>2796</v>
@@ -77058,10 +77023,10 @@
     </row>
     <row r="1624" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1624" s="19" t="s">
-        <v>1530</v>
+        <v>1543</v>
       </c>
       <c r="E1624" s="23">
-        <v>438</v>
+        <v>1042</v>
       </c>
       <c r="F1624" s="18" t="s">
         <v>1622</v>
@@ -77070,19 +77035,22 @@
         <v>805</v>
       </c>
       <c r="H1624" s="24">
-        <v>1520</v>
+        <v>1533</v>
       </c>
       <c r="J1624" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1624" t="s">
-        <v>798</v>
+        <v>387</v>
       </c>
       <c r="L1624" s="29" t="s">
-        <v>2556</v>
+        <v>2943</v>
       </c>
       <c r="M1624" t="s">
-        <v>675</v>
+        <v>419</v>
+      </c>
+      <c r="N1624" t="s">
+        <v>656</v>
       </c>
       <c r="AB1624" t="s">
         <v>2796</v>
@@ -77090,10 +77058,10 @@
     </row>
     <row r="1625" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1625" s="19" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="E1625" s="23">
-        <v>695</v>
+        <v>1054</v>
       </c>
       <c r="F1625" s="18" t="s">
         <v>1622</v>
@@ -77102,16 +77070,16 @@
         <v>805</v>
       </c>
       <c r="H1625" s="24">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="J1625" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1625" t="s">
-        <v>906</v>
+        <v>241</v>
       </c>
       <c r="L1625" s="29" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="M1625" t="s">
         <v>675</v>
@@ -77122,10 +77090,10 @@
     </row>
     <row r="1626" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1626" s="19" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E1626" s="23">
-        <v>1054</v>
+        <v>1122</v>
       </c>
       <c r="F1626" s="18" t="s">
         <v>1622</v>
@@ -77134,19 +77102,19 @@
         <v>805</v>
       </c>
       <c r="H1626" s="24">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="J1626" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1626" t="s">
-        <v>241</v>
+        <v>1262</v>
       </c>
       <c r="L1626" s="29" t="s">
-        <v>3027</v>
+        <v>3234</v>
       </c>
       <c r="M1626" t="s">
-        <v>675</v>
+        <v>419</v>
       </c>
       <c r="AB1626" t="s">
         <v>2796</v>
@@ -77154,10 +77122,10 @@
     </row>
     <row r="1627" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1627" s="19" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="E1627" s="23">
-        <v>891</v>
+        <v>1470</v>
       </c>
       <c r="F1627" s="18" t="s">
         <v>1622</v>
@@ -77166,19 +77134,19 @@
         <v>805</v>
       </c>
       <c r="H1627" s="24">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="J1627" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1627" t="s">
-        <v>23</v>
+        <v>1118</v>
       </c>
       <c r="L1627" s="29" t="s">
-        <v>3026</v>
+        <v>3236</v>
       </c>
       <c r="M1627" t="s">
-        <v>675</v>
+        <v>419</v>
       </c>
       <c r="AB1627" t="s">
         <v>2796</v>
@@ -77186,31 +77154,31 @@
     </row>
     <row r="1628" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1628" s="19" t="s">
-        <v>2305</v>
-      </c>
-      <c r="B1628" s="32" t="s">
-        <v>3576</v>
-      </c>
-      <c r="C1628" s="32" t="s">
-        <v>4746</v>
+        <v>1547</v>
       </c>
       <c r="E1628" s="23">
-        <v>1182</v>
+        <v>1492</v>
       </c>
       <c r="F1628" s="18" t="s">
         <v>1622</v>
       </c>
       <c r="G1628" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1628" s="24">
-        <v>1189</v>
+        <v>1537</v>
       </c>
       <c r="J1628" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="U1628" t="s">
-        <v>1452</v>
+      <c r="K1628" t="s">
+        <v>997</v>
+      </c>
+      <c r="L1628" s="29" t="s">
+        <v>3235</v>
+      </c>
+      <c r="M1628" t="s">
+        <v>419</v>
       </c>
       <c r="AB1628" t="s">
         <v>2796</v>
@@ -77218,10 +77186,16 @@
     </row>
     <row r="1629" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1629" s="19" t="s">
-        <v>1528</v>
+        <v>1111</v>
+      </c>
+      <c r="B1629" s="32" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C1629" s="32" t="s">
+        <v>5024</v>
       </c>
       <c r="E1629" s="23">
-        <v>423</v>
+        <v>547</v>
       </c>
       <c r="F1629" s="18" t="s">
         <v>1622</v>
@@ -77229,34 +77203,28 @@
       <c r="G1629" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="H1629" s="24">
-        <v>1518</v>
+      <c r="H1629" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1629" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1629" t="s">
-        <v>883</v>
-      </c>
-      <c r="L1629" s="29" t="s">
-        <v>2539</v>
-      </c>
-      <c r="M1629" t="s">
-        <v>419</v>
-      </c>
-      <c r="O1629" t="s">
-        <v>673</v>
-      </c>
       <c r="AB1629" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1630" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1630" s="19" t="s">
-        <v>1534</v>
+        <v>900</v>
+      </c>
+      <c r="B1630" s="32" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C1630" s="32" t="s">
+        <v>5025</v>
       </c>
       <c r="E1630" s="23">
-        <v>680</v>
+        <v>802</v>
       </c>
       <c r="F1630" s="18" t="s">
         <v>1622</v>
@@ -77264,34 +77232,22 @@
       <c r="G1630" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="H1630" s="24">
-        <v>1524</v>
+      <c r="H1630" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1630" s="13" t="s">
         <v>2243</v>
       </c>
-      <c r="K1630" t="s">
-        <v>471</v>
-      </c>
-      <c r="L1630" s="29" t="s">
-        <v>2941</v>
-      </c>
-      <c r="M1630" t="s">
-        <v>419</v>
-      </c>
-      <c r="O1630" t="s">
-        <v>673</v>
-      </c>
       <c r="AB1630" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1631" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1631" s="19" t="s">
-        <v>1542</v>
+        <v>1117</v>
       </c>
       <c r="E1631" s="23">
-        <v>1039</v>
+        <v>553</v>
       </c>
       <c r="F1631" s="18" t="s">
         <v>1622</v>
@@ -77299,23 +77255,20 @@
       <c r="G1631" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="H1631" s="24">
-        <v>1532</v>
+      <c r="H1631" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1631" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1631" t="s">
-        <v>387</v>
+        <v>139</v>
       </c>
       <c r="L1631" s="29" t="s">
-        <v>2943</v>
-      </c>
-      <c r="M1631" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1631" t="s">
-        <v>673</v>
+        <v>3542</v>
+      </c>
+      <c r="Q1631" t="s">
+        <v>422</v>
       </c>
       <c r="AB1631" t="s">
         <v>2796</v>
@@ -77323,10 +77276,10 @@
     </row>
     <row r="1632" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1632" s="19" t="s">
-        <v>1538</v>
+        <v>1110</v>
       </c>
       <c r="E1632" s="23">
-        <v>873</v>
+        <v>808</v>
       </c>
       <c r="F1632" s="18" t="s">
         <v>1622</v>
@@ -77334,23 +77287,20 @@
       <c r="G1632" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="H1632" s="24">
-        <v>1528</v>
+      <c r="H1632" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1632" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1632" t="s">
-        <v>1277</v>
+        <v>498</v>
       </c>
       <c r="L1632" s="29" t="s">
-        <v>2942</v>
-      </c>
-      <c r="M1632" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1632" t="s">
-        <v>673</v>
+        <v>3543</v>
+      </c>
+      <c r="Q1632" t="s">
+        <v>422</v>
       </c>
       <c r="AB1632" t="s">
         <v>2796</v>
@@ -77358,10 +77308,10 @@
     </row>
     <row r="1633" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1633" s="19" t="s">
-        <v>1526</v>
+        <v>1113</v>
       </c>
       <c r="E1633" s="23">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="F1633" s="18" t="s">
         <v>1622</v>
@@ -77369,19 +77319,19 @@
       <c r="G1633" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="H1633" s="24">
-        <v>1516</v>
+      <c r="H1633" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1633" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1633" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="L1633" s="29" t="s">
-        <v>2446</v>
-      </c>
-      <c r="N1633" t="s">
+        <v>3542</v>
+      </c>
+      <c r="M1633" t="s">
         <v>656</v>
       </c>
       <c r="AB1633" t="s">
@@ -77390,10 +77340,10 @@
     </row>
     <row r="1634" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1634" s="19" t="s">
-        <v>1532</v>
+        <v>1106</v>
       </c>
       <c r="E1634" s="23">
-        <v>584</v>
+        <v>804</v>
       </c>
       <c r="F1634" s="18" t="s">
         <v>1622</v>
@@ -77401,19 +77351,19 @@
       <c r="G1634" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="H1634" s="24">
-        <v>1522</v>
+      <c r="H1634" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1634" s="13" t="s">
         <v>2243</v>
       </c>
       <c r="K1634" t="s">
-        <v>1273</v>
+        <v>498</v>
       </c>
       <c r="L1634" s="29" t="s">
-        <v>3344</v>
-      </c>
-      <c r="N1634" t="s">
+        <v>3543</v>
+      </c>
+      <c r="M1634" t="s">
         <v>656</v>
       </c>
       <c r="AB1634" t="s">
@@ -77422,214 +77372,268 @@
     </row>
     <row r="1635" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1635" s="19" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B1635" s="32" t="s">
-        <v>3577</v>
-      </c>
-      <c r="C1635" s="32" t="s">
-        <v>4747</v>
+        <v>1116</v>
       </c>
       <c r="E1635" s="23">
-        <v>1396</v>
+        <v>552</v>
+      </c>
+      <c r="F1635" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1635" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1635" s="24">
-        <v>1421</v>
+        <v>805</v>
+      </c>
+      <c r="H1635" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1635" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1635" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1635" s="29" t="s">
+        <v>3542</v>
+      </c>
+      <c r="M1635" s="4" t="s">
+        <v>419</v>
+      </c>
       <c r="AB1635" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1636" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1636" s="19" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B1636" s="32" t="s">
-        <v>3578</v>
-      </c>
-      <c r="C1636" s="32" t="s">
-        <v>4748</v>
+        <v>1109</v>
       </c>
       <c r="E1636" s="23">
-        <v>1397</v>
+        <v>807</v>
+      </c>
+      <c r="F1636" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1636" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1636" s="24">
-        <v>1422</v>
+        <v>805</v>
+      </c>
+      <c r="H1636" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1636" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1636" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1636" s="29" t="s">
+        <v>3543</v>
+      </c>
+      <c r="M1636" s="4" t="s">
+        <v>419</v>
+      </c>
       <c r="AB1636" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1637" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1637" s="19" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B1637" s="32" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C1637" s="32" t="s">
-        <v>4749</v>
+        <v>1112</v>
       </c>
       <c r="E1637" s="23">
-        <v>1398</v>
+        <v>548</v>
+      </c>
+      <c r="F1637" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1637" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1637" s="24">
-        <v>1423</v>
+        <v>805</v>
+      </c>
+      <c r="H1637" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1637" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1637" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1637" s="29" t="s">
+        <v>3542</v>
+      </c>
+      <c r="M1637" t="s">
+        <v>416</v>
+      </c>
       <c r="AB1637" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1638" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1638" s="19" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B1638" s="32" t="s">
-        <v>3580</v>
-      </c>
-      <c r="C1638" s="32" t="s">
-        <v>4750</v>
+        <v>901</v>
       </c>
       <c r="E1638" s="23">
-        <v>1399</v>
+        <v>803</v>
+      </c>
+      <c r="F1638" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1638" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1638" s="24">
-        <v>1424</v>
+        <v>805</v>
+      </c>
+      <c r="H1638" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1638" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1638" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1638" s="29" t="s">
+        <v>3543</v>
+      </c>
+      <c r="M1638" t="s">
+        <v>416</v>
+      </c>
       <c r="AB1638" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1639" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1639" s="19" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B1639" s="32" t="s">
-        <v>3581</v>
-      </c>
-      <c r="C1639" s="32" t="s">
-        <v>4751</v>
+        <v>1114</v>
       </c>
       <c r="E1639" s="23">
-        <v>1400</v>
+        <v>550</v>
+      </c>
+      <c r="F1639" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1639" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1639" s="24">
-        <v>1425</v>
+        <v>805</v>
+      </c>
+      <c r="H1639" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1639" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1639" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1639" s="29" t="s">
+        <v>3542</v>
+      </c>
+      <c r="M1639" t="s">
+        <v>674</v>
+      </c>
       <c r="AB1639" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1640" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1640" s="19" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B1640" s="32" t="s">
-        <v>3582</v>
-      </c>
-      <c r="C1640" s="32" t="s">
-        <v>4752</v>
+        <v>1107</v>
       </c>
       <c r="E1640" s="23">
-        <v>1401</v>
+        <v>805</v>
+      </c>
+      <c r="F1640" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1640" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1640" s="24">
-        <v>1426</v>
+        <v>805</v>
+      </c>
+      <c r="H1640" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1640" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1640" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1640" s="29" t="s">
+        <v>3543</v>
+      </c>
+      <c r="M1640" t="s">
+        <v>674</v>
+      </c>
       <c r="AB1640" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1641" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1641" s="19" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B1641" s="32" t="s">
-        <v>3583</v>
-      </c>
-      <c r="C1641" s="32" t="s">
-        <v>4753</v>
+        <v>1115</v>
       </c>
       <c r="E1641" s="23">
-        <v>1402</v>
+        <v>551</v>
+      </c>
+      <c r="F1641" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1641" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1641" s="24">
-        <v>1427</v>
+        <v>805</v>
+      </c>
+      <c r="H1641" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1641" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1641" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1641" s="29" t="s">
+        <v>3542</v>
+      </c>
+      <c r="M1641" s="4"/>
+      <c r="N1641" t="s">
+        <v>673</v>
+      </c>
       <c r="AB1641" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="1642" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1642" s="19" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B1642" s="32" t="s">
-        <v>3584</v>
-      </c>
-      <c r="C1642" s="32" t="s">
-        <v>4754</v>
+        <v>1108</v>
       </c>
       <c r="E1642" s="23">
-        <v>1403</v>
+        <v>806</v>
+      </c>
+      <c r="F1642" s="18" t="s">
+        <v>1622</v>
       </c>
       <c r="G1642" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1642" s="24">
-        <v>1428</v>
+        <v>805</v>
+      </c>
+      <c r="H1642" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1642" s="13" t="s">
         <v>2243</v>
       </c>
+      <c r="K1642" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1642" s="29" t="s">
+        <v>3543</v>
+      </c>
+      <c r="M1642" s="4"/>
+      <c r="N1642" t="s">
+        <v>673</v>
+      </c>
       <c r="AB1642" t="s">
         <v>2796</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB1644"/>
+  <autoFilter ref="A1:AB1644">
+    <sortState ref="A2:AB1642">
+      <sortCondition ref="I1:I1644"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:AB1580">
     <sortCondition ref="AA2:AA1580"/>
     <sortCondition ref="AB2:AB1580"/>
@@ -77637,7 +77641,7 @@
   </sortState>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P881:P891 P1189:P1195 P206 P126:P129 P134:P136 P138:P139 P141:P143 P121:P122 P112:P119 P157:P173 P175:P181 P148:P155 P146 P249:P250 P247 J1479 P240 P222:P226 P217 P215 P809:P840 P1527:P1545 P1168:P1182 P566:P576 P376:P392 P361:P372 P1222:P1227 G1504:G1545 P1505:P1525 P310:P357 P1111:P1130 P1198:P1212 P296 F1083 P254 P407:P442 P521:P536 P844:P851 P454:P469 F804:F854 P855:P874 H298:H301 P1070:P1105 J302:J393 F298:F300 H394:H405 P1479 P578:P589 F1140:G1142 P1355:P1382 H4:H5 F2:J3 J6 H7 J1502:J1547 F1502:F1547 G1502 F6:H6 F1084:H1135 F302:H393 P1025:P1026 P640:P682 F640:G669 G670:G699 F671:F699 P764:P774 P721:P753 P946:P975 P988:P1021 F856:F913 P894:P913 P592:P623 J406:J589 P475:P482 P487:P515 P686:P718 P541:P561 P784:P802 P804 P1229:P1353 F1154:H1157 P920:P925 P928:P933 H926:I927 J1162:J1382 F1162:H1382 P1548:P1636 P1218:P1219 F1145:G1153 H1136:H1153 P1029:P1034 F914:H925 F406:H589 F592:H639 F700:H803 G804:H913 H640:H699 G1082:I1083 H590:I591 J928:J1135 F242:H242 F1548:J1642 P258:P260 P237 I4:I589 F8:H228 J8:J228 H1480:H1481 J242 P230 J1400:J1447 J1449:J1457 P1400:P1447 P1449:P1457 J1465:J1468 J240 P1465:P1468 J230:J237 P233 F240:H240 F1465:H1468 F1449:H1457 F1400:H1447 F230:H237 H1502:H1547 F1479:H1479 F246:H297 J246:J300 I592:J925 F928:I1081 H1383:H1399 I1084:I1547 J1140:J1160 P1145:P1160 H1158:H1161 G1158:G1160"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P881:P891 P1189:P1195 P206 P126:P129 P134:P136 P138:P139 P141:P143 P121:P122 P112:P119 P157:P173 P175:P181 P148:P155 P146 P249:P250 P247 J1479 P240 P222:P226 P217 P215 P809:P840 P1527:P1545 P1168:P1182 P566:P576 P376:P392 P361:P372 P1222:P1227 G1504:G1545 P1505:P1525 P310:P357 P1111:P1130 P1198:P1212 P296 F1083 P254 P407:P442 P521:P536 P844:P851 P454:P469 F804:F854 P855:P874 H298:H301 P1070:P1105 J1502:J1547 F298:F300 H394:H405 P1479 P578:P589 F1140:G1142 P1355:P1382 H4:H5 F2:J3 J6 H7 J1465:J1468 F1502:F1547 G1502 F6:H6 F1084:H1135 F302:H393 P1025:P1026 P640:P682 F640:G669 G670:G699 F671:F699 P764:P774 P721:P753 P946:P975 P988:P1021 F856:F913 P894:P913 P592:P623 J928:J1135 P475:P482 P487:P515 P686:P718 P541:P561 P784:P802 P804 P1229:P1353 F1154:H1157 P920:P925 P928:P933 H926:I927 J1140:J1160 F1162:H1382 P1548:P1636 P1218:P1219 F1145:G1153 H1136:H1153 P1029:P1034 F914:H925 F406:H589 F592:H639 F700:H803 G804:H913 H640:H699 G1082:I1083 H590:I591 J406:J589 F242:H242 F1548:J1642 P258:P260 P237 I4:I589 F8:H228 J8:J228 H1480:H1481 J242 P230 J1400:J1447 J1449:J1457 P1400:P1447 P1449:P1457 J1398 J240 P1465:P1468 J230:J237 P233 F240:H240 F1465:H1468 F1449:H1457 F1400:H1447 F230:H237 H1502:H1547 F1479:H1479 F246:H297 J302:J393 G1158:G1160 F928:I1081 H1383:H1399 I1084:I1547 I592:J925 P1145:P1160 H1158:H1161 J1162:J1382 J1388 J246:J300"/>
   </dataValidations>
   <pageMargins left="0.38" right="0" top="0" bottom="0.2" header="0" footer="0"/>
   <pageSetup scale="60" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/absGlyphList/absGlyphList.xlsx
+++ b/absGlyphList/absGlyphList.xlsx
@@ -16033,10 +16033,10 @@
   <dimension ref="A1:AB1642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A1354" sqref="A1354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35412,7 +35412,7 @@
         <v>504</v>
       </c>
       <c r="J507" s="11" t="s">
-        <v>2243</v>
+        <v>561</v>
       </c>
       <c r="K507" s="19" t="s">
         <v>4831</v>
@@ -36691,7 +36691,7 @@
         <v>536</v>
       </c>
       <c r="J539" s="11" t="s">
-        <v>2243</v>
+        <v>561</v>
       </c>
       <c r="K539" s="19" t="s">
         <v>4831</v>
@@ -37016,7 +37016,7 @@
         <v>544</v>
       </c>
       <c r="J547" s="11" t="s">
-        <v>2243</v>
+        <v>561</v>
       </c>
       <c r="K547" s="19" t="s">
         <v>4831</v>
@@ -55559,7 +55559,7 @@
         <v>993</v>
       </c>
       <c r="J996" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K996" t="s">
         <v>1281</v>
@@ -55650,7 +55650,7 @@
         <v>995</v>
       </c>
       <c r="J998" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="U998" t="s">
         <v>1449</v>
@@ -55688,7 +55688,7 @@
         <v>996</v>
       </c>
       <c r="J999" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="U999" t="s">
         <v>1448</v>
@@ -55723,7 +55723,7 @@
         <v>997</v>
       </c>
       <c r="J1000" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1000" t="s">
         <v>495</v>
@@ -55767,7 +55767,7 @@
         <v>998</v>
       </c>
       <c r="J1001" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1001" t="s">
         <v>1257</v>
@@ -55808,7 +55808,7 @@
         <v>999</v>
       </c>
       <c r="J1002" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K1002" t="s">
         <v>22</v>
@@ -63244,7 +63244,7 @@
         <v>1181</v>
       </c>
       <c r="J1185" s="13" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="X1185" t="s">
         <v>1511</v>
@@ -77641,7 +77641,7 @@
   </sortState>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P881:P891 P1189:P1195 P206 P126:P129 P134:P136 P138:P139 P141:P143 P121:P122 P112:P119 P157:P173 P175:P181 P148:P155 P146 P249:P250 P247 J1479 P240 P222:P226 P217 P215 P809:P840 P1527:P1545 P1168:P1182 P566:P576 P376:P392 P361:P372 P1222:P1227 G1504:G1545 P1505:P1525 P310:P357 P1111:P1130 P1198:P1212 P296 F1083 P254 P407:P442 P521:P536 P844:P851 P454:P469 F804:F854 P855:P874 H298:H301 P1070:P1105 J1502:J1547 F298:F300 H394:H405 P1479 P578:P589 F1140:G1142 P1355:P1382 H4:H5 F2:J3 J6 H7 J1465:J1468 F1502:F1547 G1502 F6:H6 F1084:H1135 F302:H393 P1025:P1026 P640:P682 F640:G669 G670:G699 F671:F699 P764:P774 P721:P753 P946:P975 P988:P1021 F856:F913 P894:P913 P592:P623 J928:J1135 P475:P482 P487:P515 P686:P718 P541:P561 P784:P802 P804 P1229:P1353 F1154:H1157 P920:P925 P928:P933 H926:I927 J1140:J1160 F1162:H1382 P1548:P1636 P1218:P1219 F1145:G1153 H1136:H1153 P1029:P1034 F914:H925 F406:H589 F592:H639 F700:H803 G804:H913 H640:H699 G1082:I1083 H590:I591 J406:J589 F242:H242 F1548:J1642 P258:P260 P237 I4:I589 F8:H228 J8:J228 H1480:H1481 J242 P230 J1400:J1447 J1449:J1457 P1400:P1447 P1449:P1457 J1398 J240 P1465:P1468 J230:J237 P233 F240:H240 F1465:H1468 F1449:H1457 F1400:H1447 F230:H237 H1502:H1547 F1479:H1479 F246:H297 J302:J393 G1158:G1160 F928:I1081 H1383:H1399 I1084:I1547 I592:J925 P1145:P1160 H1158:H1161 J1162:J1382 J1388 J246:J300"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P881:P891 P1189:P1195 P206 P126:P129 P134:P136 P138:P139 P141:P143 P121:P122 P112:P119 P157:P173 P175:P181 P148:P155 P146 P249:P250 P247 J1479 P240 P222:P226 P217 P215 P809:P840 P1527:P1545 P1168:P1182 P566:P576 P376:P392 P361:P372 P1222:P1227 G1504:G1545 P1505:P1525 P310:P357 P1111:P1130 P1198:P1212 P296 F1083 P254 P407:P442 P521:P536 P844:P851 P454:P469 F804:F854 P855:P874 H298:H301 P1070:P1105 J1502:J1547 F298:F300 H394:H405 P1479 P578:P589 F1140:G1142 P1355:P1382 H4:H5 F2:J3 J6 H7 J1465:J1468 F1502:F1547 G1502 F6:H6 F1084:H1135 F302:H393 P1025:P1026 P640:P682 F640:G669 G670:G699 F671:F699 P764:P774 P721:P753 P946:P975 P988:P1021 F856:F913 P894:P913 P592:P623 J246:J300 P475:P482 P487:P515 P686:P718 P541:P561 P784:P802 P804 P1229:P1353 F1154:H1157 P920:P925 P928:P933 H926:I927 J1140:J1160 F1162:H1382 P1548:P1636 P1218:P1219 F1145:G1153 H1136:H1153 P1029:P1034 F914:H925 F406:H589 F592:H639 F700:H803 G804:H913 H640:H699 G1082:I1083 H590:I591 J406:J589 F242:H242 F1548:J1642 P258:P260 P237 I4:I589 F8:H228 J8:J228 H1480:H1481 J242 P230 J1400:J1447 J1449:J1457 P1400:P1447 P1449:P1457 J1398 J240 P1465:P1468 J230:J237 P233 F240:H240 F1465:H1468 F1449:H1457 F1400:H1447 F230:H237 H1502:H1547 F1479:H1479 F246:H297 J302:J393 G1158:G1160 F928:I1081 H1383:H1399 I1084:I1547 I592:J925 P1145:P1160 H1158:H1161 J1162:J1382 J1388 J928:J1135"/>
   </dataValidations>
   <pageMargins left="0.38" right="0" top="0" bottom="0.2" header="0" footer="0"/>
   <pageSetup scale="60" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/absGlyphList/absGlyphList.xlsx
+++ b/absGlyphList/absGlyphList.xlsx
@@ -16033,10 +16033,10 @@
   <dimension ref="A1:AB1642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1354" sqref="A1354"/>
+      <selection pane="bottomRight" activeCell="J1197" sqref="J1197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -63660,7 +63660,7 @@
         <v>1193</v>
       </c>
       <c r="J1197" s="11" t="s">
-        <v>572</v>
+        <v>2244</v>
       </c>
       <c r="X1197" t="s">
         <v>1520</v>
